--- a/2014-2015年各月资金投入与产出情况对比-V201505C.xlsx
+++ b/2014-2015年各月资金投入与产出情况对比-V201505C.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.135.29\6009-financial\_6.资金投入产出总表\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DevTools\git\test\nhvs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2881,7 +2881,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2949,6 +2949,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3240,7 +3246,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="374">
+  <cellXfs count="375">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4074,6 +4080,9 @@
     <xf numFmtId="43" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4089,130 +4098,139 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="28" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="27" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="28" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="27" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="28" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="27" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="28" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="28" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="20" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="28" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="27" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="28" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="27" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="28" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="27" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="28" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="28" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="176" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="43" fontId="11" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="11" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="11" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="11" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="11" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4230,6 +4248,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="8" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4257,37 +4278,28 @@
     <xf numFmtId="176" fontId="8" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="8" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4311,8 +4323,38 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4323,41 +4365,8 @@
     <xf numFmtId="176" fontId="11" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="46">
@@ -5081,44 +5090,44 @@
       </c>
     </row>
     <row r="15" spans="1:17" ht="46.5">
-      <c r="G15" s="280" t="s">
+      <c r="G15" s="281" t="s">
         <v>438</v>
       </c>
-      <c r="H15" s="280"/>
-      <c r="I15" s="280"/>
-      <c r="J15" s="280"/>
-      <c r="K15" s="280"/>
-      <c r="L15" s="280"/>
-      <c r="M15" s="280"/>
-      <c r="N15" s="280"/>
-      <c r="O15" s="280"/>
-      <c r="P15" s="280"/>
+      <c r="H15" s="281"/>
+      <c r="I15" s="281"/>
+      <c r="J15" s="281"/>
+      <c r="K15" s="281"/>
+      <c r="L15" s="281"/>
+      <c r="M15" s="281"/>
+      <c r="N15" s="281"/>
+      <c r="O15" s="281"/>
+      <c r="P15" s="281"/>
     </row>
     <row r="17" spans="3:15" ht="23.25" thickBot="1">
-      <c r="J17" s="281" t="s">
+      <c r="J17" s="282" t="s">
         <v>437</v>
       </c>
-      <c r="K17" s="281"/>
-      <c r="L17" s="281"/>
+      <c r="K17" s="282"/>
+      <c r="L17" s="282"/>
     </row>
     <row r="18" spans="3:15" ht="15" thickTop="1"/>
     <row r="23" spans="3:15" ht="45" customHeight="1">
       <c r="C23" t="s">
         <v>439</v>
       </c>
-      <c r="D23" s="279" t="s">
+      <c r="D23" s="280" t="s">
         <v>448</v>
       </c>
-      <c r="E23" s="279"/>
+      <c r="E23" s="280"/>
     </row>
     <row r="24" spans="3:15" ht="45" customHeight="1">
       <c r="C24" s="32" t="s">
         <v>435</v>
       </c>
-      <c r="D24" s="279" t="s">
+      <c r="D24" s="280" t="s">
         <v>440</v>
       </c>
-      <c r="E24" s="279"/>
+      <c r="E24" s="280"/>
       <c r="N24" t="s">
         <v>436</v>
       </c>
@@ -5130,10 +5139,10 @@
       <c r="C25" s="32" t="s">
         <v>434</v>
       </c>
-      <c r="D25" s="279" t="s">
+      <c r="D25" s="280" t="s">
         <v>444</v>
       </c>
-      <c r="E25" s="279"/>
+      <c r="E25" s="280"/>
       <c r="N25" t="s">
         <v>442</v>
       </c>
@@ -5145,10 +5154,10 @@
       <c r="C26" s="32" t="s">
         <v>433</v>
       </c>
-      <c r="D26" s="279" t="s">
+      <c r="D26" s="280" t="s">
         <v>441</v>
       </c>
-      <c r="E26" s="279"/>
+      <c r="E26" s="280"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -5183,38 +5192,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="22.5">
-      <c r="A1" s="287" t="s">
+      <c r="A1" s="285" t="s">
         <v>295</v>
       </c>
-      <c r="B1" s="287"/>
-      <c r="C1" s="287"/>
-      <c r="D1" s="287"/>
-      <c r="E1" s="287"/>
-      <c r="F1" s="287"/>
-      <c r="G1" s="287"/>
-      <c r="H1" s="287"/>
-      <c r="I1" s="287"/>
-      <c r="J1" s="287"/>
-      <c r="K1" s="287"/>
-      <c r="L1" s="287"/>
-      <c r="M1" s="287"/>
+      <c r="B1" s="285"/>
+      <c r="C1" s="285"/>
+      <c r="D1" s="285"/>
+      <c r="E1" s="285"/>
+      <c r="F1" s="285"/>
+      <c r="G1" s="285"/>
+      <c r="H1" s="285"/>
+      <c r="I1" s="285"/>
+      <c r="J1" s="285"/>
+      <c r="K1" s="285"/>
+      <c r="L1" s="285"/>
+      <c r="M1" s="285"/>
     </row>
     <row r="3" spans="1:13" ht="20.25">
-      <c r="A3" s="308" t="s">
+      <c r="A3" s="326" t="s">
         <v>284</v>
       </c>
-      <c r="B3" s="308"/>
-      <c r="C3" s="308"/>
-      <c r="D3" s="308"/>
-      <c r="E3" s="308"/>
-      <c r="F3" s="308"/>
-      <c r="G3" s="308"/>
-      <c r="H3" s="308"/>
-      <c r="I3" s="308"/>
-      <c r="J3" s="308"/>
-      <c r="K3" s="308"/>
-      <c r="L3" s="308"/>
-      <c r="M3" s="308"/>
+      <c r="B3" s="326"/>
+      <c r="C3" s="326"/>
+      <c r="D3" s="326"/>
+      <c r="E3" s="326"/>
+      <c r="F3" s="326"/>
+      <c r="G3" s="326"/>
+      <c r="H3" s="326"/>
+      <c r="I3" s="326"/>
+      <c r="J3" s="326"/>
+      <c r="K3" s="326"/>
+      <c r="L3" s="326"/>
+      <c r="M3" s="326"/>
     </row>
     <row r="4" spans="1:13" ht="20.100000000000001" customHeight="1"/>
     <row r="5" spans="1:13" s="37" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -6079,36 +6088,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="22.5">
-      <c r="A1" s="287" t="s">
+      <c r="A1" s="285" t="s">
         <v>287</v>
       </c>
-      <c r="B1" s="287"/>
-      <c r="C1" s="287"/>
-      <c r="D1" s="287"/>
-      <c r="E1" s="287"/>
-      <c r="F1" s="287"/>
-      <c r="G1" s="287"/>
-      <c r="H1" s="287"/>
-      <c r="I1" s="287"/>
-      <c r="J1" s="287"/>
-      <c r="K1" s="287"/>
-      <c r="L1" s="287"/>
+      <c r="B1" s="285"/>
+      <c r="C1" s="285"/>
+      <c r="D1" s="285"/>
+      <c r="E1" s="285"/>
+      <c r="F1" s="285"/>
+      <c r="G1" s="285"/>
+      <c r="H1" s="285"/>
+      <c r="I1" s="285"/>
+      <c r="J1" s="285"/>
+      <c r="K1" s="285"/>
+      <c r="L1" s="285"/>
     </row>
     <row r="3" spans="1:12" ht="22.5">
-      <c r="A3" s="283" t="s">
+      <c r="A3" s="284" t="s">
         <v>285</v>
       </c>
-      <c r="B3" s="283"/>
-      <c r="C3" s="283"/>
-      <c r="D3" s="283"/>
-      <c r="E3" s="283"/>
-      <c r="F3" s="283"/>
-      <c r="G3" s="283"/>
-      <c r="H3" s="283"/>
-      <c r="I3" s="283"/>
-      <c r="J3" s="283"/>
-      <c r="K3" s="283"/>
-      <c r="L3" s="283"/>
+      <c r="B3" s="284"/>
+      <c r="C3" s="284"/>
+      <c r="D3" s="284"/>
+      <c r="E3" s="284"/>
+      <c r="F3" s="284"/>
+      <c r="G3" s="284"/>
+      <c r="H3" s="284"/>
+      <c r="I3" s="284"/>
+      <c r="J3" s="284"/>
+      <c r="K3" s="284"/>
+      <c r="L3" s="284"/>
     </row>
     <row r="4" spans="1:12">
       <c r="L4" s="150" t="s">
@@ -6119,43 +6128,43 @@
       <c r="A5" s="288" t="s">
         <v>132</v>
       </c>
-      <c r="B5" s="368" t="s">
+      <c r="B5" s="361" t="s">
         <v>164</v>
       </c>
-      <c r="C5" s="369"/>
-      <c r="D5" s="369"/>
-      <c r="E5" s="369"/>
-      <c r="F5" s="370"/>
-      <c r="G5" s="301" t="s">
+      <c r="C5" s="362"/>
+      <c r="D5" s="362"/>
+      <c r="E5" s="362"/>
+      <c r="F5" s="363"/>
+      <c r="G5" s="302" t="s">
         <v>163</v>
       </c>
-      <c r="H5" s="301"/>
-      <c r="I5" s="301"/>
-      <c r="J5" s="301"/>
-      <c r="K5" s="301"/>
-      <c r="L5" s="301"/>
+      <c r="H5" s="302"/>
+      <c r="I5" s="302"/>
+      <c r="J5" s="302"/>
+      <c r="K5" s="302"/>
+      <c r="L5" s="302"/>
     </row>
     <row r="6" spans="1:12" s="149" customFormat="1" ht="18" customHeight="1">
-      <c r="A6" s="364"/>
-      <c r="B6" s="371" t="s">
+      <c r="A6" s="360"/>
+      <c r="B6" s="364" t="s">
         <v>160</v>
       </c>
-      <c r="C6" s="372"/>
-      <c r="D6" s="365" t="s">
+      <c r="C6" s="365"/>
+      <c r="D6" s="366" t="s">
         <v>162</v>
       </c>
-      <c r="E6" s="366"/>
-      <c r="F6" s="367"/>
-      <c r="G6" s="362" t="s">
+      <c r="E6" s="367"/>
+      <c r="F6" s="368"/>
+      <c r="G6" s="369" t="s">
         <v>153</v>
       </c>
-      <c r="H6" s="359" t="s">
+      <c r="H6" s="371" t="s">
         <v>156</v>
       </c>
-      <c r="I6" s="359"/>
-      <c r="J6" s="359"/>
-      <c r="K6" s="359"/>
-      <c r="L6" s="360" t="s">
+      <c r="I6" s="371"/>
+      <c r="J6" s="371"/>
+      <c r="K6" s="371"/>
+      <c r="L6" s="372" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6176,7 +6185,7 @@
       <c r="F7" s="151" t="s">
         <v>167</v>
       </c>
-      <c r="G7" s="363"/>
+      <c r="G7" s="370"/>
       <c r="H7" s="151" t="s">
         <v>157</v>
       </c>
@@ -6189,7 +6198,7 @@
       <c r="K7" s="151" t="s">
         <v>169</v>
       </c>
-      <c r="L7" s="361"/>
+      <c r="L7" s="373"/>
     </row>
     <row r="8" spans="1:12" s="149" customFormat="1" ht="30.75" customHeight="1">
       <c r="A8" s="153" t="s">
@@ -6335,20 +6344,20 @@
       <c r="L13" s="35"/>
     </row>
     <row r="16" spans="1:12" ht="22.5">
-      <c r="A16" s="283" t="s">
+      <c r="A16" s="284" t="s">
         <v>383</v>
       </c>
-      <c r="B16" s="283"/>
-      <c r="C16" s="283"/>
-      <c r="D16" s="283"/>
-      <c r="E16" s="283"/>
-      <c r="F16" s="283"/>
-      <c r="G16" s="283"/>
-      <c r="H16" s="283"/>
-      <c r="I16" s="283"/>
-      <c r="J16" s="283"/>
-      <c r="K16" s="283"/>
-      <c r="L16" s="283"/>
+      <c r="B16" s="284"/>
+      <c r="C16" s="284"/>
+      <c r="D16" s="284"/>
+      <c r="E16" s="284"/>
+      <c r="F16" s="284"/>
+      <c r="G16" s="284"/>
+      <c r="H16" s="284"/>
+      <c r="I16" s="284"/>
+      <c r="J16" s="284"/>
+      <c r="K16" s="284"/>
+      <c r="L16" s="284"/>
     </row>
     <row r="17" spans="1:12">
       <c r="L17" s="150" t="s">
@@ -6359,43 +6368,43 @@
       <c r="A18" s="288" t="s">
         <v>132</v>
       </c>
-      <c r="B18" s="368" t="s">
+      <c r="B18" s="361" t="s">
         <v>164</v>
       </c>
-      <c r="C18" s="369"/>
-      <c r="D18" s="369"/>
-      <c r="E18" s="369"/>
-      <c r="F18" s="370"/>
-      <c r="G18" s="301" t="s">
+      <c r="C18" s="362"/>
+      <c r="D18" s="362"/>
+      <c r="E18" s="362"/>
+      <c r="F18" s="363"/>
+      <c r="G18" s="302" t="s">
         <v>163</v>
       </c>
-      <c r="H18" s="301"/>
-      <c r="I18" s="301"/>
-      <c r="J18" s="301"/>
-      <c r="K18" s="301"/>
-      <c r="L18" s="301"/>
+      <c r="H18" s="302"/>
+      <c r="I18" s="302"/>
+      <c r="J18" s="302"/>
+      <c r="K18" s="302"/>
+      <c r="L18" s="302"/>
     </row>
     <row r="19" spans="1:12" s="149" customFormat="1" ht="18" customHeight="1">
-      <c r="A19" s="364"/>
-      <c r="B19" s="371" t="s">
+      <c r="A19" s="360"/>
+      <c r="B19" s="364" t="s">
         <v>160</v>
       </c>
-      <c r="C19" s="372"/>
-      <c r="D19" s="365" t="s">
+      <c r="C19" s="365"/>
+      <c r="D19" s="366" t="s">
         <v>162</v>
       </c>
-      <c r="E19" s="366"/>
-      <c r="F19" s="367"/>
-      <c r="G19" s="362" t="s">
+      <c r="E19" s="367"/>
+      <c r="F19" s="368"/>
+      <c r="G19" s="369" t="s">
         <v>153</v>
       </c>
-      <c r="H19" s="359" t="s">
+      <c r="H19" s="371" t="s">
         <v>156</v>
       </c>
-      <c r="I19" s="359"/>
-      <c r="J19" s="359"/>
-      <c r="K19" s="359"/>
-      <c r="L19" s="360" t="s">
+      <c r="I19" s="371"/>
+      <c r="J19" s="371"/>
+      <c r="K19" s="371"/>
+      <c r="L19" s="372" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6416,7 +6425,7 @@
       <c r="F20" s="219" t="s">
         <v>453</v>
       </c>
-      <c r="G20" s="363"/>
+      <c r="G20" s="370"/>
       <c r="H20" s="219" t="s">
         <v>157</v>
       </c>
@@ -6429,7 +6438,7 @@
       <c r="K20" s="219" t="s">
         <v>169</v>
       </c>
-      <c r="L20" s="361"/>
+      <c r="L20" s="373"/>
     </row>
     <row r="21" spans="1:12" s="149" customFormat="1" ht="30.75" customHeight="1">
       <c r="A21" s="218" t="s">
@@ -6710,15 +6719,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A16:L16"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="G18:L18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:K19"/>
-    <mergeCell ref="L19:L20"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A3:L3"/>
     <mergeCell ref="G5:L5"/>
@@ -6729,6 +6729,15 @@
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="B5:F5"/>
     <mergeCell ref="B6:C6"/>
+    <mergeCell ref="A16:L16"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="G18:L18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="L19:L20"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.55000000000000004" right="0.48" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6755,16 +6764,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="22.5">
-      <c r="A2" s="283" t="s">
+      <c r="A2" s="284" t="s">
         <v>223</v>
       </c>
-      <c r="B2" s="283"/>
-      <c r="C2" s="283"/>
-      <c r="D2" s="283"/>
-      <c r="E2" s="283"/>
-      <c r="F2" s="283"/>
-      <c r="G2" s="283"/>
-      <c r="H2" s="283"/>
+      <c r="B2" s="284"/>
+      <c r="C2" s="284"/>
+      <c r="D2" s="284"/>
+      <c r="E2" s="284"/>
+      <c r="F2" s="284"/>
+      <c r="G2" s="284"/>
+      <c r="H2" s="284"/>
       <c r="I2" s="210"/>
     </row>
     <row r="3" spans="1:11" ht="29.25" customHeight="1"/>
@@ -7046,29 +7055,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="25.5">
-      <c r="A2" s="282" t="s">
+      <c r="A2" s="283" t="s">
         <v>380</v>
       </c>
-      <c r="B2" s="282"/>
-      <c r="C2" s="282"/>
-      <c r="D2" s="282"/>
-      <c r="E2" s="282"/>
-      <c r="F2" s="282"/>
-      <c r="G2" s="282"/>
-      <c r="H2" s="282"/>
+      <c r="B2" s="283"/>
+      <c r="C2" s="283"/>
+      <c r="D2" s="283"/>
+      <c r="E2" s="283"/>
+      <c r="F2" s="283"/>
+      <c r="G2" s="283"/>
+      <c r="H2" s="283"/>
     </row>
     <row r="4" spans="1:8" ht="31.5" customHeight="1"/>
     <row r="5" spans="1:8" s="222" customFormat="1" ht="22.5">
-      <c r="A5" s="283" t="s">
+      <c r="A5" s="284" t="s">
         <v>296</v>
       </c>
-      <c r="B5" s="283"/>
-      <c r="C5" s="283"/>
-      <c r="D5" s="283"/>
-      <c r="E5" s="283"/>
-      <c r="F5" s="283"/>
-      <c r="G5" s="283"/>
-      <c r="H5" s="283"/>
+      <c r="B5" s="284"/>
+      <c r="C5" s="284"/>
+      <c r="D5" s="284"/>
+      <c r="E5" s="284"/>
+      <c r="F5" s="284"/>
+      <c r="G5" s="284"/>
+      <c r="H5" s="284"/>
     </row>
     <row r="6" spans="1:8" s="223" customFormat="1" ht="18.75"/>
     <row r="7" spans="1:8" s="223" customFormat="1" ht="18.75"/>
@@ -7119,7 +7128,7 @@
   <dimension ref="A1:V58"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection sqref="A1:V1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -7146,57 +7155,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="30.75" customHeight="1">
-      <c r="A1" s="287" t="s">
+      <c r="A1" s="374" t="s">
         <v>289</v>
       </c>
-      <c r="B1" s="287"/>
-      <c r="C1" s="287"/>
-      <c r="D1" s="287"/>
-      <c r="E1" s="287"/>
-      <c r="F1" s="287"/>
-      <c r="G1" s="287"/>
-      <c r="H1" s="287"/>
-      <c r="I1" s="287"/>
-      <c r="J1" s="287"/>
-      <c r="K1" s="287"/>
-      <c r="L1" s="287"/>
-      <c r="M1" s="287"/>
-      <c r="N1" s="287"/>
-      <c r="O1" s="287"/>
-      <c r="P1" s="287"/>
-      <c r="Q1" s="287"/>
-      <c r="R1" s="287"/>
-      <c r="S1" s="287"/>
-      <c r="T1" s="287"/>
-      <c r="U1" s="287"/>
-      <c r="V1" s="287"/>
+      <c r="B1" s="374"/>
+      <c r="C1" s="374"/>
+      <c r="D1" s="374"/>
+      <c r="E1" s="374"/>
+      <c r="F1" s="374"/>
+      <c r="G1" s="374"/>
+      <c r="H1" s="374"/>
+      <c r="I1" s="374"/>
+      <c r="J1" s="374"/>
+      <c r="K1" s="374"/>
+      <c r="L1" s="374"/>
+      <c r="M1" s="374"/>
+      <c r="N1" s="374"/>
+      <c r="O1" s="374"/>
+      <c r="P1" s="374"/>
+      <c r="Q1" s="374"/>
+      <c r="R1" s="374"/>
+      <c r="S1" s="374"/>
+      <c r="T1" s="374"/>
+      <c r="U1" s="374"/>
+      <c r="V1" s="374"/>
     </row>
     <row r="2" spans="1:22" ht="12" customHeight="1"/>
     <row r="3" spans="1:22" ht="24" hidden="1" customHeight="1">
-      <c r="A3" s="283" t="s">
+      <c r="A3" s="284" t="s">
         <v>105</v>
       </c>
-      <c r="B3" s="283"/>
-      <c r="C3" s="283"/>
-      <c r="D3" s="283"/>
-      <c r="E3" s="283"/>
-      <c r="F3" s="283"/>
-      <c r="G3" s="283"/>
-      <c r="H3" s="283"/>
-      <c r="I3" s="283"/>
-      <c r="J3" s="283"/>
-      <c r="K3" s="283"/>
-      <c r="L3" s="283"/>
-      <c r="M3" s="283"/>
-      <c r="N3" s="283"/>
-      <c r="O3" s="283"/>
-      <c r="P3" s="283"/>
-      <c r="Q3" s="283"/>
-      <c r="R3" s="283"/>
-      <c r="S3" s="283"/>
-      <c r="T3" s="283"/>
-      <c r="U3" s="283"/>
-      <c r="V3" s="283"/>
+      <c r="B3" s="284"/>
+      <c r="C3" s="284"/>
+      <c r="D3" s="284"/>
+      <c r="E3" s="284"/>
+      <c r="F3" s="284"/>
+      <c r="G3" s="284"/>
+      <c r="H3" s="284"/>
+      <c r="I3" s="284"/>
+      <c r="J3" s="284"/>
+      <c r="K3" s="284"/>
+      <c r="L3" s="284"/>
+      <c r="M3" s="284"/>
+      <c r="N3" s="284"/>
+      <c r="O3" s="284"/>
+      <c r="P3" s="284"/>
+      <c r="Q3" s="284"/>
+      <c r="R3" s="284"/>
+      <c r="S3" s="284"/>
+      <c r="T3" s="284"/>
+      <c r="U3" s="284"/>
+      <c r="V3" s="284"/>
     </row>
     <row r="4" spans="1:22" hidden="1">
       <c r="V4" t="s">
@@ -7207,31 +7216,31 @@
       <c r="A5" s="288" t="s">
         <v>92</v>
       </c>
-      <c r="B5" s="284" t="s">
+      <c r="B5" s="286" t="s">
         <v>170</v>
       </c>
-      <c r="C5" s="285"/>
-      <c r="D5" s="286"/>
-      <c r="E5" s="290" t="s">
+      <c r="C5" s="290"/>
+      <c r="D5" s="287"/>
+      <c r="E5" s="291" t="s">
         <v>150</v>
       </c>
-      <c r="F5" s="290"/>
-      <c r="G5" s="284" t="s">
+      <c r="F5" s="291"/>
+      <c r="G5" s="286" t="s">
         <v>409</v>
       </c>
-      <c r="H5" s="286"/>
-      <c r="I5" s="284" t="s">
+      <c r="H5" s="287"/>
+      <c r="I5" s="286" t="s">
         <v>413</v>
       </c>
-      <c r="J5" s="285"/>
-      <c r="K5" s="285"/>
-      <c r="L5" s="285"/>
-      <c r="M5" s="285"/>
-      <c r="N5" s="285"/>
-      <c r="O5" s="284" t="s">
+      <c r="J5" s="290"/>
+      <c r="K5" s="290"/>
+      <c r="L5" s="290"/>
+      <c r="M5" s="290"/>
+      <c r="N5" s="290"/>
+      <c r="O5" s="286" t="s">
         <v>411</v>
       </c>
-      <c r="P5" s="286"/>
+      <c r="P5" s="287"/>
       <c r="Q5" s="264" t="s">
         <v>412</v>
       </c>
@@ -7241,11 +7250,11 @@
       <c r="S5" s="269" t="s">
         <v>430</v>
       </c>
-      <c r="T5" s="284" t="s">
+      <c r="T5" s="286" t="s">
         <v>431</v>
       </c>
-      <c r="U5" s="285"/>
-      <c r="V5" s="286"/>
+      <c r="U5" s="290"/>
+      <c r="V5" s="287"/>
     </row>
     <row r="6" spans="1:22" s="101" customFormat="1" ht="42.75" hidden="1">
       <c r="A6" s="289"/>
@@ -7670,30 +7679,30 @@
       <c r="V12" s="100"/>
     </row>
     <row r="13" spans="1:22" ht="21" customHeight="1">
-      <c r="A13" s="283" t="s">
+      <c r="A13" s="284" t="s">
         <v>326</v>
       </c>
-      <c r="B13" s="283"/>
-      <c r="C13" s="283"/>
-      <c r="D13" s="283"/>
-      <c r="E13" s="283"/>
-      <c r="F13" s="283"/>
-      <c r="G13" s="283"/>
-      <c r="H13" s="283"/>
-      <c r="I13" s="283"/>
-      <c r="J13" s="283"/>
-      <c r="K13" s="283"/>
-      <c r="L13" s="283"/>
-      <c r="M13" s="283"/>
-      <c r="N13" s="283"/>
-      <c r="O13" s="283"/>
-      <c r="P13" s="283"/>
-      <c r="Q13" s="283"/>
-      <c r="R13" s="283"/>
-      <c r="S13" s="283"/>
-      <c r="T13" s="283"/>
-      <c r="U13" s="283"/>
-      <c r="V13" s="283"/>
+      <c r="B13" s="284"/>
+      <c r="C13" s="284"/>
+      <c r="D13" s="284"/>
+      <c r="E13" s="284"/>
+      <c r="F13" s="284"/>
+      <c r="G13" s="284"/>
+      <c r="H13" s="284"/>
+      <c r="I13" s="284"/>
+      <c r="J13" s="284"/>
+      <c r="K13" s="284"/>
+      <c r="L13" s="284"/>
+      <c r="M13" s="284"/>
+      <c r="N13" s="284"/>
+      <c r="O13" s="284"/>
+      <c r="P13" s="284"/>
+      <c r="Q13" s="284"/>
+      <c r="R13" s="284"/>
+      <c r="S13" s="284"/>
+      <c r="T13" s="284"/>
+      <c r="U13" s="284"/>
+      <c r="V13" s="284"/>
     </row>
     <row r="14" spans="1:22">
       <c r="V14" t="s">
@@ -7704,31 +7713,31 @@
       <c r="A15" s="288" t="s">
         <v>92</v>
       </c>
-      <c r="B15" s="284" t="s">
+      <c r="B15" s="286" t="s">
         <v>272</v>
       </c>
-      <c r="C15" s="285"/>
-      <c r="D15" s="286"/>
-      <c r="E15" s="290" t="s">
+      <c r="C15" s="290"/>
+      <c r="D15" s="287"/>
+      <c r="E15" s="291" t="s">
         <v>149</v>
       </c>
-      <c r="F15" s="290"/>
-      <c r="G15" s="284" t="s">
+      <c r="F15" s="291"/>
+      <c r="G15" s="286" t="s">
         <v>409</v>
       </c>
-      <c r="H15" s="286"/>
-      <c r="I15" s="284" t="s">
+      <c r="H15" s="287"/>
+      <c r="I15" s="286" t="s">
         <v>414</v>
       </c>
-      <c r="J15" s="285"/>
-      <c r="K15" s="285"/>
-      <c r="L15" s="285"/>
-      <c r="M15" s="285"/>
-      <c r="N15" s="285"/>
-      <c r="O15" s="284" t="s">
+      <c r="J15" s="290"/>
+      <c r="K15" s="290"/>
+      <c r="L15" s="290"/>
+      <c r="M15" s="290"/>
+      <c r="N15" s="290"/>
+      <c r="O15" s="286" t="s">
         <v>411</v>
       </c>
-      <c r="P15" s="286"/>
+      <c r="P15" s="287"/>
       <c r="Q15" s="264" t="s">
         <v>412</v>
       </c>
@@ -7738,11 +7747,11 @@
       <c r="S15" s="288" t="s">
         <v>430</v>
       </c>
-      <c r="T15" s="284" t="s">
+      <c r="T15" s="286" t="s">
         <v>431</v>
       </c>
-      <c r="U15" s="285"/>
-      <c r="V15" s="286"/>
+      <c r="U15" s="290"/>
+      <c r="V15" s="287"/>
     </row>
     <row r="16" spans="1:22" s="101" customFormat="1" ht="42.75">
       <c r="A16" s="289"/>
@@ -8188,7 +8197,7 @@
         <f t="shared" si="4"/>
         <v>64559.287032095235</v>
       </c>
-      <c r="L22" s="373" t="s">
+      <c r="L22" s="279" t="s">
         <v>462</v>
       </c>
       <c r="M22" s="203" t="s">
@@ -8389,6 +8398,8 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I15:N15"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="O5:P5"/>
     <mergeCell ref="A3:V3"/>
@@ -8405,8 +8416,6 @@
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="G15:H15"/>
     <mergeCell ref="O15:P15"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I15:N15"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.17" right="0.11811023622047245" top="0.39370078740157483" bottom="0.27559055118110237" header="0.31496062992125984" footer="0.19685039370078741"/>
@@ -8448,57 +8457,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="30.75" customHeight="1">
-      <c r="A1" s="287" t="s">
+      <c r="A1" s="285" t="s">
         <v>289</v>
       </c>
-      <c r="B1" s="287"/>
-      <c r="C1" s="287"/>
-      <c r="D1" s="287"/>
-      <c r="E1" s="287"/>
-      <c r="F1" s="287"/>
-      <c r="G1" s="287"/>
-      <c r="H1" s="287"/>
-      <c r="I1" s="287"/>
-      <c r="J1" s="287"/>
-      <c r="K1" s="287"/>
-      <c r="L1" s="287"/>
-      <c r="M1" s="287"/>
-      <c r="N1" s="287"/>
-      <c r="O1" s="287"/>
-      <c r="P1" s="287"/>
-      <c r="Q1" s="287"/>
-      <c r="R1" s="287"/>
-      <c r="S1" s="287"/>
-      <c r="T1" s="287"/>
-      <c r="U1" s="287"/>
-      <c r="V1" s="287"/>
+      <c r="B1" s="285"/>
+      <c r="C1" s="285"/>
+      <c r="D1" s="285"/>
+      <c r="E1" s="285"/>
+      <c r="F1" s="285"/>
+      <c r="G1" s="285"/>
+      <c r="H1" s="285"/>
+      <c r="I1" s="285"/>
+      <c r="J1" s="285"/>
+      <c r="K1" s="285"/>
+      <c r="L1" s="285"/>
+      <c r="M1" s="285"/>
+      <c r="N1" s="285"/>
+      <c r="O1" s="285"/>
+      <c r="P1" s="285"/>
+      <c r="Q1" s="285"/>
+      <c r="R1" s="285"/>
+      <c r="S1" s="285"/>
+      <c r="T1" s="285"/>
+      <c r="U1" s="285"/>
+      <c r="V1" s="285"/>
     </row>
     <row r="2" spans="1:22" ht="12" customHeight="1"/>
     <row r="3" spans="1:22" ht="24" customHeight="1">
-      <c r="A3" s="283" t="s">
+      <c r="A3" s="284" t="s">
         <v>105</v>
       </c>
-      <c r="B3" s="283"/>
-      <c r="C3" s="283"/>
-      <c r="D3" s="283"/>
-      <c r="E3" s="283"/>
-      <c r="F3" s="283"/>
-      <c r="G3" s="283"/>
-      <c r="H3" s="283"/>
-      <c r="I3" s="283"/>
-      <c r="J3" s="283"/>
-      <c r="K3" s="283"/>
-      <c r="L3" s="283"/>
-      <c r="M3" s="283"/>
-      <c r="N3" s="283"/>
-      <c r="O3" s="283"/>
-      <c r="P3" s="283"/>
-      <c r="Q3" s="283"/>
-      <c r="R3" s="283"/>
-      <c r="S3" s="283"/>
-      <c r="T3" s="283"/>
-      <c r="U3" s="283"/>
-      <c r="V3" s="283"/>
+      <c r="B3" s="284"/>
+      <c r="C3" s="284"/>
+      <c r="D3" s="284"/>
+      <c r="E3" s="284"/>
+      <c r="F3" s="284"/>
+      <c r="G3" s="284"/>
+      <c r="H3" s="284"/>
+      <c r="I3" s="284"/>
+      <c r="J3" s="284"/>
+      <c r="K3" s="284"/>
+      <c r="L3" s="284"/>
+      <c r="M3" s="284"/>
+      <c r="N3" s="284"/>
+      <c r="O3" s="284"/>
+      <c r="P3" s="284"/>
+      <c r="Q3" s="284"/>
+      <c r="R3" s="284"/>
+      <c r="S3" s="284"/>
+      <c r="T3" s="284"/>
+      <c r="U3" s="284"/>
+      <c r="V3" s="284"/>
     </row>
     <row r="4" spans="1:22">
       <c r="V4" t="s">
@@ -8509,31 +8518,31 @@
       <c r="A5" s="288" t="s">
         <v>92</v>
       </c>
-      <c r="B5" s="284" t="s">
+      <c r="B5" s="286" t="s">
         <v>170</v>
       </c>
-      <c r="C5" s="285"/>
-      <c r="D5" s="286"/>
-      <c r="E5" s="290" t="s">
+      <c r="C5" s="290"/>
+      <c r="D5" s="287"/>
+      <c r="E5" s="291" t="s">
         <v>150</v>
       </c>
-      <c r="F5" s="290"/>
-      <c r="G5" s="284" t="s">
+      <c r="F5" s="291"/>
+      <c r="G5" s="286" t="s">
         <v>409</v>
       </c>
-      <c r="H5" s="286"/>
-      <c r="I5" s="284" t="s">
+      <c r="H5" s="287"/>
+      <c r="I5" s="286" t="s">
         <v>413</v>
       </c>
-      <c r="J5" s="285"/>
-      <c r="K5" s="285"/>
-      <c r="L5" s="285"/>
-      <c r="M5" s="285"/>
-      <c r="N5" s="285"/>
-      <c r="O5" s="284" t="s">
+      <c r="J5" s="290"/>
+      <c r="K5" s="290"/>
+      <c r="L5" s="290"/>
+      <c r="M5" s="290"/>
+      <c r="N5" s="290"/>
+      <c r="O5" s="286" t="s">
         <v>411</v>
       </c>
-      <c r="P5" s="286"/>
+      <c r="P5" s="287"/>
       <c r="Q5" s="273" t="s">
         <v>412</v>
       </c>
@@ -8543,11 +8552,11 @@
       <c r="S5" s="274" t="s">
         <v>430</v>
       </c>
-      <c r="T5" s="284" t="s">
+      <c r="T5" s="286" t="s">
         <v>431</v>
       </c>
-      <c r="U5" s="285"/>
-      <c r="V5" s="286"/>
+      <c r="U5" s="290"/>
+      <c r="V5" s="287"/>
     </row>
     <row r="6" spans="1:22" s="101" customFormat="1" ht="42.75">
       <c r="A6" s="289"/>
@@ -8978,38 +8987,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="155" customFormat="1" ht="30" customHeight="1">
-      <c r="A1" s="291" t="s">
+      <c r="A1" s="301" t="s">
         <v>324</v>
       </c>
-      <c r="B1" s="291"/>
-      <c r="C1" s="291"/>
-      <c r="D1" s="291"/>
-      <c r="E1" s="291"/>
-      <c r="F1" s="291"/>
-      <c r="G1" s="291"/>
-      <c r="H1" s="291"/>
-      <c r="I1" s="291"/>
-      <c r="J1" s="291"/>
-      <c r="K1" s="291"/>
-      <c r="L1" s="291"/>
-      <c r="M1" s="291"/>
-      <c r="N1" s="291"/>
-      <c r="O1" s="291"/>
-      <c r="P1" s="291"/>
-      <c r="Q1" s="291"/>
-      <c r="R1" s="291"/>
-      <c r="S1" s="291"/>
+      <c r="B1" s="301"/>
+      <c r="C1" s="301"/>
+      <c r="D1" s="301"/>
+      <c r="E1" s="301"/>
+      <c r="F1" s="301"/>
+      <c r="G1" s="301"/>
+      <c r="H1" s="301"/>
+      <c r="I1" s="301"/>
+      <c r="J1" s="301"/>
+      <c r="K1" s="301"/>
+      <c r="L1" s="301"/>
+      <c r="M1" s="301"/>
+      <c r="N1" s="301"/>
+      <c r="O1" s="301"/>
+      <c r="P1" s="301"/>
+      <c r="Q1" s="301"/>
+      <c r="R1" s="301"/>
+      <c r="S1" s="301"/>
     </row>
     <row r="3" spans="1:19" ht="22.5">
-      <c r="A3" s="298" t="s">
+      <c r="A3" s="292" t="s">
         <v>385</v>
       </c>
-      <c r="B3" s="298"/>
-      <c r="C3" s="298"/>
-      <c r="D3" s="298"/>
-      <c r="E3" s="298"/>
-      <c r="F3" s="298"/>
-      <c r="G3" s="298"/>
+      <c r="B3" s="292"/>
+      <c r="C3" s="292"/>
+      <c r="D3" s="292"/>
+      <c r="E3" s="292"/>
+      <c r="F3" s="292"/>
+      <c r="G3" s="292"/>
     </row>
     <row r="4" spans="1:19">
       <c r="L4" s="156" t="s">
@@ -9361,10 +9370,10 @@
       <c r="S11" s="229"/>
     </row>
     <row r="12" spans="1:19" ht="21" customHeight="1">
-      <c r="A12" s="292" t="s">
+      <c r="A12" s="293" t="s">
         <v>297</v>
       </c>
-      <c r="B12" s="293"/>
+      <c r="B12" s="294"/>
       <c r="C12" s="230">
         <f>C10+C11</f>
         <v>109233</v>
@@ -9506,10 +9515,10 @@
       <c r="S14" s="229"/>
     </row>
     <row r="15" spans="1:19" ht="21" customHeight="1">
-      <c r="A15" s="294" t="s">
+      <c r="A15" s="295" t="s">
         <v>298</v>
       </c>
-      <c r="B15" s="295"/>
+      <c r="B15" s="296"/>
       <c r="C15" s="230">
         <f>SUM(C13:C14)</f>
         <v>34060</v>
@@ -9603,10 +9612,10 @@
       <c r="S16" s="229"/>
     </row>
     <row r="17" spans="1:19" ht="21" customHeight="1">
-      <c r="A17" s="296" t="s">
+      <c r="A17" s="297" t="s">
         <v>299</v>
       </c>
-      <c r="B17" s="297"/>
+      <c r="B17" s="298"/>
       <c r="C17" s="230">
         <f>C12+C15+C16</f>
         <v>143339</v>
@@ -9654,15 +9663,15 @@
       <c r="S17" s="230"/>
     </row>
     <row r="18" spans="1:19" ht="22.5">
-      <c r="A18" s="298" t="s">
+      <c r="A18" s="292" t="s">
         <v>323</v>
       </c>
-      <c r="B18" s="298"/>
-      <c r="C18" s="298"/>
-      <c r="D18" s="298"/>
-      <c r="E18" s="298"/>
-      <c r="F18" s="298"/>
-      <c r="G18" s="298"/>
+      <c r="B18" s="292"/>
+      <c r="C18" s="292"/>
+      <c r="D18" s="292"/>
+      <c r="E18" s="292"/>
+      <c r="F18" s="292"/>
+      <c r="G18" s="292"/>
     </row>
     <row r="19" spans="1:19">
       <c r="K19" s="156" t="s">
@@ -9887,10 +9896,10 @@
       </c>
     </row>
     <row r="27" spans="1:19" ht="21" customHeight="1">
-      <c r="A27" s="292" t="s">
+      <c r="A27" s="293" t="s">
         <v>297</v>
       </c>
-      <c r="B27" s="293"/>
+      <c r="B27" s="294"/>
       <c r="C27" s="230">
         <f>C25+C26</f>
         <v>103632</v>
@@ -9985,10 +9994,10 @@
       </c>
     </row>
     <row r="30" spans="1:19" ht="21" customHeight="1">
-      <c r="A30" s="294" t="s">
+      <c r="A30" s="295" t="s">
         <v>298</v>
       </c>
-      <c r="B30" s="295"/>
+      <c r="B30" s="296"/>
       <c r="C30" s="230">
         <f>SUM(C28:C29)</f>
         <v>25818</v>
@@ -10061,10 +10070,10 @@
       </c>
     </row>
     <row r="32" spans="1:19" ht="21" customHeight="1">
-      <c r="A32" s="296" t="s">
+      <c r="A32" s="297" t="s">
         <v>299</v>
       </c>
-      <c r="B32" s="297"/>
+      <c r="B32" s="298"/>
       <c r="C32" s="230">
         <f>C27+C30+C31</f>
         <v>135333</v>
@@ -10104,16 +10113,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A3:G3"/>
     <mergeCell ref="A18:G18"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A1:S1"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A3:G3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.53" right="0.17" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -10144,18 +10153,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="22.5">
-      <c r="B1" s="283" t="s">
+      <c r="B1" s="284" t="s">
         <v>140</v>
       </c>
-      <c r="C1" s="283"/>
-      <c r="D1" s="283"/>
-      <c r="E1" s="283"/>
-      <c r="F1" s="283"/>
-      <c r="G1" s="283"/>
-      <c r="H1" s="283"/>
-      <c r="I1" s="283"/>
-      <c r="J1" s="283"/>
-      <c r="K1" s="283"/>
+      <c r="C1" s="284"/>
+      <c r="D1" s="284"/>
+      <c r="E1" s="284"/>
+      <c r="F1" s="284"/>
+      <c r="G1" s="284"/>
+      <c r="H1" s="284"/>
+      <c r="I1" s="284"/>
+      <c r="J1" s="284"/>
+      <c r="K1" s="284"/>
     </row>
     <row r="3" spans="2:11">
       <c r="K3" s="150" t="s">
@@ -10166,25 +10175,25 @@
       <c r="B4" s="288" t="s">
         <v>132</v>
       </c>
-      <c r="C4" s="301" t="s">
+      <c r="C4" s="302" t="s">
         <v>146</v>
       </c>
-      <c r="D4" s="301"/>
+      <c r="D4" s="302"/>
       <c r="E4" s="152" t="s">
         <v>148</v>
       </c>
-      <c r="F4" s="301" t="s">
+      <c r="F4" s="302" t="s">
         <v>147</v>
       </c>
-      <c r="G4" s="301"/>
-      <c r="H4" s="301" t="s">
+      <c r="G4" s="302"/>
+      <c r="H4" s="302" t="s">
         <v>144</v>
       </c>
-      <c r="I4" s="301"/>
-      <c r="J4" s="301" t="s">
+      <c r="I4" s="302"/>
+      <c r="J4" s="302" t="s">
         <v>145</v>
       </c>
-      <c r="K4" s="301"/>
+      <c r="K4" s="302"/>
     </row>
     <row r="5" spans="2:11" s="149" customFormat="1" ht="28.5">
       <c r="B5" s="289"/>
@@ -10435,32 +10444,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="22.5">
-      <c r="A1" s="287" t="s">
+      <c r="A1" s="285" t="s">
         <v>293</v>
       </c>
-      <c r="B1" s="287"/>
-      <c r="C1" s="287"/>
-      <c r="D1" s="287"/>
-      <c r="E1" s="287"/>
-      <c r="F1" s="287"/>
-      <c r="G1" s="287"/>
-      <c r="H1" s="287"/>
-      <c r="I1" s="287"/>
-      <c r="J1" s="287"/>
+      <c r="B1" s="285"/>
+      <c r="C1" s="285"/>
+      <c r="D1" s="285"/>
+      <c r="E1" s="285"/>
+      <c r="F1" s="285"/>
+      <c r="G1" s="285"/>
+      <c r="H1" s="285"/>
+      <c r="I1" s="285"/>
+      <c r="J1" s="285"/>
     </row>
     <row r="3" spans="1:11" s="59" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A3" s="302" t="s">
+      <c r="A3" s="305" t="s">
         <v>327</v>
       </c>
-      <c r="B3" s="302"/>
-      <c r="C3" s="302"/>
-      <c r="D3" s="302"/>
-      <c r="E3" s="302"/>
-      <c r="F3" s="302"/>
-      <c r="G3" s="302"/>
-      <c r="H3" s="302"/>
-      <c r="I3" s="302"/>
-      <c r="J3" s="302"/>
+      <c r="B3" s="305"/>
+      <c r="C3" s="305"/>
+      <c r="D3" s="305"/>
+      <c r="E3" s="305"/>
+      <c r="F3" s="305"/>
+      <c r="G3" s="305"/>
+      <c r="H3" s="305"/>
+      <c r="I3" s="305"/>
+      <c r="J3" s="305"/>
       <c r="K3" s="165"/>
     </row>
     <row r="4" spans="1:11" s="59" customFormat="1" ht="16.5" customHeight="1">
@@ -10478,37 +10487,37 @@
       <c r="K4" s="165"/>
     </row>
     <row r="5" spans="1:11" s="59" customFormat="1">
-      <c r="A5" s="303" t="s">
+      <c r="A5" s="306" t="s">
         <v>329</v>
       </c>
-      <c r="B5" s="303" t="s">
+      <c r="B5" s="306" t="s">
         <v>330</v>
       </c>
-      <c r="C5" s="306" t="s">
+      <c r="C5" s="307" t="s">
         <v>331</v>
       </c>
-      <c r="D5" s="307" t="s">
+      <c r="D5" s="308" t="s">
         <v>332</v>
       </c>
-      <c r="E5" s="303" t="s">
+      <c r="E5" s="306" t="s">
         <v>333</v>
       </c>
-      <c r="F5" s="303"/>
-      <c r="G5" s="303" t="s">
+      <c r="F5" s="306"/>
+      <c r="G5" s="306" t="s">
         <v>334</v>
       </c>
-      <c r="H5" s="303"/>
-      <c r="I5" s="303" t="s">
+      <c r="H5" s="306"/>
+      <c r="I5" s="306" t="s">
         <v>335</v>
       </c>
-      <c r="J5" s="303"/>
+      <c r="J5" s="306"/>
       <c r="K5" s="165"/>
     </row>
     <row r="6" spans="1:11" s="59" customFormat="1">
-      <c r="A6" s="303"/>
-      <c r="B6" s="303"/>
-      <c r="C6" s="303"/>
-      <c r="D6" s="307"/>
+      <c r="A6" s="306"/>
+      <c r="B6" s="306"/>
+      <c r="C6" s="306"/>
+      <c r="D6" s="308"/>
       <c r="E6" s="85" t="s">
         <v>336</v>
       </c>
@@ -10840,10 +10849,10 @@
       <c r="K16" s="165"/>
     </row>
     <row r="17" spans="1:11" s="170" customFormat="1">
-      <c r="A17" s="304" t="s">
+      <c r="A17" s="303" t="s">
         <v>347</v>
       </c>
-      <c r="B17" s="304"/>
+      <c r="B17" s="303"/>
       <c r="C17" s="90">
         <v>32</v>
       </c>
@@ -10937,10 +10946,10 @@
       <c r="K19" s="165"/>
     </row>
     <row r="20" spans="1:11" s="170" customFormat="1">
-      <c r="A20" s="304" t="s">
+      <c r="A20" s="303" t="s">
         <v>350</v>
       </c>
-      <c r="B20" s="304"/>
+      <c r="B20" s="303"/>
       <c r="C20" s="90">
         <v>27</v>
       </c>
@@ -10968,10 +10977,10 @@
       <c r="K20" s="165"/>
     </row>
     <row r="21" spans="1:11" s="170" customFormat="1">
-      <c r="A21" s="305" t="s">
+      <c r="A21" s="304" t="s">
         <v>351</v>
       </c>
-      <c r="B21" s="305"/>
+      <c r="B21" s="304"/>
       <c r="C21" s="95">
         <v>59</v>
       </c>
@@ -10999,18 +11008,18 @@
       <c r="K21" s="174"/>
     </row>
     <row r="23" spans="1:11" ht="22.5">
-      <c r="A23" s="302" t="s">
+      <c r="A23" s="305" t="s">
         <v>255</v>
       </c>
-      <c r="B23" s="302"/>
-      <c r="C23" s="302"/>
-      <c r="D23" s="302"/>
-      <c r="E23" s="302"/>
-      <c r="F23" s="302"/>
-      <c r="G23" s="302"/>
-      <c r="H23" s="302"/>
-      <c r="I23" s="302"/>
-      <c r="J23" s="302"/>
+      <c r="B23" s="305"/>
+      <c r="C23" s="305"/>
+      <c r="D23" s="305"/>
+      <c r="E23" s="305"/>
+      <c r="F23" s="305"/>
+      <c r="G23" s="305"/>
+      <c r="H23" s="305"/>
+      <c r="I23" s="305"/>
+      <c r="J23" s="305"/>
     </row>
     <row r="24" spans="1:11">
       <c r="J24" t="s">
@@ -11018,36 +11027,36 @@
       </c>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="303" t="s">
+      <c r="A25" s="306" t="s">
         <v>230</v>
       </c>
-      <c r="B25" s="303" t="s">
+      <c r="B25" s="306" t="s">
         <v>231</v>
       </c>
-      <c r="C25" s="306" t="s">
+      <c r="C25" s="307" t="s">
         <v>232</v>
       </c>
-      <c r="D25" s="307" t="s">
+      <c r="D25" s="308" t="s">
         <v>233</v>
       </c>
-      <c r="E25" s="303" t="s">
+      <c r="E25" s="306" t="s">
         <v>234</v>
       </c>
-      <c r="F25" s="303"/>
-      <c r="G25" s="303" t="s">
+      <c r="F25" s="306"/>
+      <c r="G25" s="306" t="s">
         <v>235</v>
       </c>
-      <c r="H25" s="303"/>
-      <c r="I25" s="303" t="s">
+      <c r="H25" s="306"/>
+      <c r="I25" s="306" t="s">
         <v>236</v>
       </c>
-      <c r="J25" s="303"/>
+      <c r="J25" s="306"/>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="303"/>
-      <c r="B26" s="303"/>
-      <c r="C26" s="303"/>
-      <c r="D26" s="307"/>
+      <c r="A26" s="306"/>
+      <c r="B26" s="306"/>
+      <c r="C26" s="306"/>
+      <c r="D26" s="308"/>
       <c r="E26" s="85" t="s">
         <v>237</v>
       </c>
@@ -11412,10 +11421,10 @@
       </c>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="304" t="s">
+      <c r="A38" s="303" t="s">
         <v>47</v>
       </c>
-      <c r="B38" s="304"/>
+      <c r="B38" s="303"/>
       <c r="C38" s="90">
         <v>28</v>
       </c>
@@ -11530,10 +11539,10 @@
       </c>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="304" t="s">
+      <c r="A42" s="303" t="s">
         <v>253</v>
       </c>
-      <c r="B42" s="304"/>
+      <c r="B42" s="303"/>
       <c r="C42" s="92">
         <v>51</v>
       </c>
@@ -11560,10 +11569,10 @@
       </c>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="305" t="s">
+      <c r="A43" s="304" t="s">
         <v>254</v>
       </c>
-      <c r="B43" s="305"/>
+      <c r="B43" s="304"/>
       <c r="C43" s="93">
         <v>79</v>
       </c>
@@ -11590,18 +11599,18 @@
       </c>
     </row>
     <row r="45" spans="1:11" s="59" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A45" s="302" t="s">
+      <c r="A45" s="305" t="s">
         <v>227</v>
       </c>
-      <c r="B45" s="302"/>
-      <c r="C45" s="302"/>
-      <c r="D45" s="302"/>
-      <c r="E45" s="302"/>
-      <c r="F45" s="302"/>
-      <c r="G45" s="302"/>
-      <c r="H45" s="302"/>
-      <c r="I45" s="302"/>
-      <c r="J45" s="302"/>
+      <c r="B45" s="305"/>
+      <c r="C45" s="305"/>
+      <c r="D45" s="305"/>
+      <c r="E45" s="305"/>
+      <c r="F45" s="305"/>
+      <c r="G45" s="305"/>
+      <c r="H45" s="305"/>
+      <c r="I45" s="305"/>
+      <c r="J45" s="305"/>
       <c r="K45" s="165"/>
     </row>
     <row r="46" spans="1:11" s="59" customFormat="1">
@@ -11617,37 +11626,37 @@
       <c r="K46" s="165"/>
     </row>
     <row r="47" spans="1:11" s="59" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A47" s="303" t="s">
+      <c r="A47" s="306" t="s">
         <v>173</v>
       </c>
-      <c r="B47" s="303" t="s">
+      <c r="B47" s="306" t="s">
         <v>174</v>
       </c>
-      <c r="C47" s="306" t="s">
+      <c r="C47" s="307" t="s">
         <v>175</v>
       </c>
-      <c r="D47" s="307" t="s">
+      <c r="D47" s="308" t="s">
         <v>176</v>
       </c>
-      <c r="E47" s="303" t="s">
+      <c r="E47" s="306" t="s">
         <v>177</v>
       </c>
-      <c r="F47" s="303"/>
-      <c r="G47" s="303" t="s">
+      <c r="F47" s="306"/>
+      <c r="G47" s="306" t="s">
         <v>178</v>
       </c>
-      <c r="H47" s="303"/>
-      <c r="I47" s="303" t="s">
+      <c r="H47" s="306"/>
+      <c r="I47" s="306" t="s">
         <v>179</v>
       </c>
-      <c r="J47" s="303"/>
+      <c r="J47" s="306"/>
       <c r="K47" s="165"/>
     </row>
     <row r="48" spans="1:11" s="59" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A48" s="303"/>
-      <c r="B48" s="303"/>
-      <c r="C48" s="303"/>
-      <c r="D48" s="307"/>
+      <c r="A48" s="306"/>
+      <c r="B48" s="306"/>
+      <c r="C48" s="306"/>
+      <c r="D48" s="308"/>
       <c r="E48" s="85" t="s">
         <v>180</v>
       </c>
@@ -12020,10 +12029,10 @@
       <c r="K59" s="165"/>
     </row>
     <row r="60" spans="1:11" s="170" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A60" s="304" t="s">
+      <c r="A60" s="303" t="s">
         <v>193</v>
       </c>
-      <c r="B60" s="304"/>
+      <c r="B60" s="303"/>
       <c r="C60" s="90">
         <v>34</v>
       </c>
@@ -12142,10 +12151,10 @@
       <c r="K63" s="165"/>
     </row>
     <row r="64" spans="1:11" s="170" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A64" s="304" t="s">
+      <c r="A64" s="303" t="s">
         <v>197</v>
       </c>
-      <c r="B64" s="304"/>
+      <c r="B64" s="303"/>
       <c r="C64" s="92">
         <v>36</v>
       </c>
@@ -12173,10 +12182,10 @@
       <c r="K64" s="165"/>
     </row>
     <row r="65" spans="1:11" s="170" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A65" s="305" t="s">
+      <c r="A65" s="304" t="s">
         <v>198</v>
       </c>
-      <c r="B65" s="305"/>
+      <c r="B65" s="304"/>
       <c r="C65" s="93">
         <v>70</v>
       </c>
@@ -12205,18 +12214,18 @@
     </row>
     <row r="66" spans="1:11" ht="9.75" customHeight="1"/>
     <row r="67" spans="1:11" s="111" customFormat="1" ht="21" customHeight="1">
-      <c r="A67" s="311" t="s">
+      <c r="A67" s="309" t="s">
         <v>226</v>
       </c>
-      <c r="B67" s="311"/>
-      <c r="C67" s="311"/>
-      <c r="D67" s="311"/>
-      <c r="E67" s="311"/>
-      <c r="F67" s="311"/>
-      <c r="G67" s="311"/>
-      <c r="H67" s="311"/>
-      <c r="I67" s="311"/>
-      <c r="J67" s="311"/>
+      <c r="B67" s="309"/>
+      <c r="C67" s="309"/>
+      <c r="D67" s="309"/>
+      <c r="E67" s="309"/>
+      <c r="F67" s="309"/>
+      <c r="G67" s="309"/>
+      <c r="H67" s="309"/>
+      <c r="I67" s="309"/>
+      <c r="J67" s="309"/>
     </row>
     <row r="68" spans="1:11" hidden="1">
       <c r="A68" s="58"/>
@@ -12247,36 +12256,36 @@
       </c>
     </row>
     <row r="70" spans="1:11" ht="15" customHeight="1">
-      <c r="A70" s="303" t="s">
+      <c r="A70" s="306" t="s">
         <v>52</v>
       </c>
-      <c r="B70" s="303" t="s">
+      <c r="B70" s="306" t="s">
         <v>53</v>
       </c>
-      <c r="C70" s="306" t="s">
+      <c r="C70" s="307" t="s">
         <v>54</v>
       </c>
-      <c r="D70" s="307" t="s">
+      <c r="D70" s="308" t="s">
         <v>55</v>
       </c>
-      <c r="E70" s="303" t="s">
+      <c r="E70" s="306" t="s">
         <v>56</v>
       </c>
-      <c r="F70" s="303"/>
-      <c r="G70" s="303" t="s">
+      <c r="F70" s="306"/>
+      <c r="G70" s="306" t="s">
         <v>57</v>
       </c>
-      <c r="H70" s="303"/>
-      <c r="I70" s="303" t="s">
+      <c r="H70" s="306"/>
+      <c r="I70" s="306" t="s">
         <v>58</v>
       </c>
-      <c r="J70" s="303"/>
+      <c r="J70" s="306"/>
     </row>
     <row r="71" spans="1:11" ht="15" customHeight="1">
-      <c r="A71" s="303"/>
-      <c r="B71" s="303"/>
-      <c r="C71" s="303"/>
-      <c r="D71" s="307"/>
+      <c r="A71" s="306"/>
+      <c r="B71" s="306"/>
+      <c r="C71" s="306"/>
+      <c r="D71" s="308"/>
       <c r="E71" s="85" t="s">
         <v>59</v>
       </c>
@@ -12573,10 +12582,10 @@
       </c>
     </row>
     <row r="81" spans="1:10" ht="15" customHeight="1">
-      <c r="A81" s="304" t="s">
+      <c r="A81" s="303" t="s">
         <v>63</v>
       </c>
-      <c r="B81" s="304"/>
+      <c r="B81" s="303"/>
       <c r="C81" s="90">
         <v>33</v>
       </c>
@@ -12695,10 +12704,10 @@
       </c>
     </row>
     <row r="85" spans="1:10" ht="15" customHeight="1">
-      <c r="A85" s="304" t="s">
+      <c r="A85" s="303" t="s">
         <v>66</v>
       </c>
-      <c r="B85" s="304"/>
+      <c r="B85" s="303"/>
       <c r="C85" s="92">
         <v>20</v>
       </c>
@@ -12725,10 +12734,10 @@
       </c>
     </row>
     <row r="86" spans="1:10" ht="15" customHeight="1">
-      <c r="A86" s="305" t="s">
+      <c r="A86" s="304" t="s">
         <v>67</v>
       </c>
-      <c r="B86" s="305"/>
+      <c r="B86" s="304"/>
       <c r="C86" s="93">
         <v>53</v>
       </c>
@@ -12756,18 +12765,18 @@
     </row>
     <row r="87" spans="1:10" ht="16.5" customHeight="1"/>
     <row r="88" spans="1:10" s="111" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A88" s="311" t="s">
+      <c r="A88" s="309" t="s">
         <v>221</v>
       </c>
-      <c r="B88" s="311"/>
-      <c r="C88" s="311"/>
-      <c r="D88" s="311"/>
-      <c r="E88" s="311"/>
-      <c r="F88" s="311"/>
-      <c r="G88" s="311"/>
-      <c r="H88" s="311"/>
-      <c r="I88" s="311"/>
-      <c r="J88" s="311"/>
+      <c r="B88" s="309"/>
+      <c r="C88" s="309"/>
+      <c r="D88" s="309"/>
+      <c r="E88" s="309"/>
+      <c r="F88" s="309"/>
+      <c r="G88" s="309"/>
+      <c r="H88" s="309"/>
+      <c r="I88" s="309"/>
+      <c r="J88" s="309"/>
     </row>
     <row r="89" spans="1:10" ht="15.75" hidden="1" customHeight="1">
       <c r="A89" s="58"/>
@@ -12798,36 +12807,36 @@
       </c>
     </row>
     <row r="91" spans="1:10" ht="15" customHeight="1">
-      <c r="A91" s="303" t="s">
+      <c r="A91" s="306" t="s">
         <v>52</v>
       </c>
-      <c r="B91" s="303" t="s">
+      <c r="B91" s="306" t="s">
         <v>53</v>
       </c>
-      <c r="C91" s="324" t="s">
+      <c r="C91" s="310" t="s">
         <v>54</v>
       </c>
-      <c r="D91" s="309" t="s">
+      <c r="D91" s="312" t="s">
         <v>55</v>
       </c>
-      <c r="E91" s="303" t="s">
+      <c r="E91" s="306" t="s">
         <v>56</v>
       </c>
-      <c r="F91" s="303"/>
-      <c r="G91" s="303" t="s">
+      <c r="F91" s="306"/>
+      <c r="G91" s="306" t="s">
         <v>57</v>
       </c>
-      <c r="H91" s="303"/>
-      <c r="I91" s="303" t="s">
+      <c r="H91" s="306"/>
+      <c r="I91" s="306" t="s">
         <v>58</v>
       </c>
-      <c r="J91" s="303"/>
+      <c r="J91" s="306"/>
     </row>
     <row r="92" spans="1:10" ht="15" customHeight="1">
-      <c r="A92" s="303"/>
-      <c r="B92" s="303"/>
-      <c r="C92" s="325"/>
-      <c r="D92" s="309"/>
+      <c r="A92" s="306"/>
+      <c r="B92" s="306"/>
+      <c r="C92" s="311"/>
+      <c r="D92" s="312"/>
       <c r="E92" s="62" t="s">
         <v>59</v>
       </c>
@@ -13062,10 +13071,10 @@
       </c>
     </row>
     <row r="100" spans="1:10" ht="15" customHeight="1">
-      <c r="A100" s="304" t="s">
+      <c r="A100" s="303" t="s">
         <v>63</v>
       </c>
-      <c r="B100" s="304"/>
+      <c r="B100" s="303"/>
       <c r="C100" s="67">
         <f t="shared" ref="C100:F100" si="0">SUM(C93:C99)</f>
         <v>41</v>
@@ -13160,10 +13169,10 @@
       </c>
     </row>
     <row r="103" spans="1:10" ht="15" customHeight="1">
-      <c r="A103" s="304" t="s">
+      <c r="A103" s="303" t="s">
         <v>66</v>
       </c>
-      <c r="B103" s="304"/>
+      <c r="B103" s="303"/>
       <c r="C103" s="67">
         <f t="shared" ref="C103:F103" si="1">SUM(C101:C102)</f>
         <v>18</v>
@@ -13194,10 +13203,10 @@
       </c>
     </row>
     <row r="104" spans="1:10" ht="15" customHeight="1">
-      <c r="A104" s="305" t="s">
+      <c r="A104" s="304" t="s">
         <v>67</v>
       </c>
-      <c r="B104" s="305"/>
+      <c r="B104" s="304"/>
       <c r="C104" s="71">
         <f t="shared" ref="C104:F104" si="2">C100+C103</f>
         <v>59</v>
@@ -13230,18 +13239,18 @@
     <row r="105" spans="1:10" hidden="1"/>
     <row r="106" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="107" spans="1:10" s="111" customFormat="1" ht="20.25">
-      <c r="A107" s="311" t="s">
+      <c r="A107" s="309" t="s">
         <v>220</v>
       </c>
-      <c r="B107" s="311"/>
-      <c r="C107" s="311"/>
-      <c r="D107" s="311"/>
-      <c r="E107" s="311"/>
-      <c r="F107" s="311"/>
-      <c r="G107" s="311"/>
-      <c r="H107" s="311"/>
-      <c r="I107" s="311"/>
-      <c r="J107" s="311"/>
+      <c r="B107" s="309"/>
+      <c r="C107" s="309"/>
+      <c r="D107" s="309"/>
+      <c r="E107" s="309"/>
+      <c r="F107" s="309"/>
+      <c r="G107" s="309"/>
+      <c r="H107" s="309"/>
+      <c r="I107" s="309"/>
+      <c r="J107" s="309"/>
     </row>
     <row r="108" spans="1:10">
       <c r="A108" s="58"/>
@@ -13258,36 +13267,36 @@
       </c>
     </row>
     <row r="109" spans="1:10" ht="15" customHeight="1">
-      <c r="A109" s="303" t="s">
+      <c r="A109" s="306" t="s">
         <v>52</v>
       </c>
-      <c r="B109" s="303" t="s">
+      <c r="B109" s="306" t="s">
         <v>53</v>
       </c>
-      <c r="C109" s="324" t="s">
+      <c r="C109" s="310" t="s">
         <v>54</v>
       </c>
-      <c r="D109" s="309" t="s">
+      <c r="D109" s="312" t="s">
         <v>55</v>
       </c>
-      <c r="E109" s="303" t="s">
+      <c r="E109" s="306" t="s">
         <v>56</v>
       </c>
-      <c r="F109" s="303"/>
-      <c r="G109" s="303" t="s">
+      <c r="F109" s="306"/>
+      <c r="G109" s="306" t="s">
         <v>57</v>
       </c>
-      <c r="H109" s="303"/>
-      <c r="I109" s="303" t="s">
+      <c r="H109" s="306"/>
+      <c r="I109" s="306" t="s">
         <v>71</v>
       </c>
-      <c r="J109" s="303"/>
+      <c r="J109" s="306"/>
     </row>
     <row r="110" spans="1:10" ht="15" customHeight="1">
-      <c r="A110" s="303"/>
-      <c r="B110" s="303"/>
-      <c r="C110" s="325"/>
-      <c r="D110" s="309"/>
+      <c r="A110" s="306"/>
+      <c r="B110" s="306"/>
+      <c r="C110" s="311"/>
+      <c r="D110" s="312"/>
       <c r="E110" s="62" t="s">
         <v>59</v>
       </c>
@@ -13532,10 +13541,10 @@
       </c>
     </row>
     <row r="118" spans="1:10" ht="15" customHeight="1">
-      <c r="A118" s="304" t="s">
+      <c r="A118" s="303" t="s">
         <v>63</v>
       </c>
-      <c r="B118" s="304"/>
+      <c r="B118" s="303"/>
       <c r="C118" s="76">
         <f t="shared" ref="C118:J118" si="3">SUM(C111:C117)</f>
         <v>37</v>
@@ -13634,10 +13643,10 @@
       </c>
     </row>
     <row r="121" spans="1:10" ht="15" customHeight="1">
-      <c r="A121" s="304" t="s">
+      <c r="A121" s="303" t="s">
         <v>66</v>
       </c>
-      <c r="B121" s="304"/>
+      <c r="B121" s="303"/>
       <c r="C121" s="76">
         <f>SUM(C119:C120)</f>
         <v>27</v>
@@ -13672,10 +13681,10 @@
       </c>
     </row>
     <row r="122" spans="1:10" ht="15" customHeight="1">
-      <c r="A122" s="305" t="s">
+      <c r="A122" s="304" t="s">
         <v>67</v>
       </c>
-      <c r="B122" s="305"/>
+      <c r="B122" s="304"/>
       <c r="C122" s="77">
         <f>C118+C121</f>
         <v>64</v>
@@ -13711,18 +13720,18 @@
     </row>
     <row r="123" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="124" spans="1:10" s="111" customFormat="1" ht="20.25">
-      <c r="A124" s="311" t="s">
+      <c r="A124" s="309" t="s">
         <v>219</v>
       </c>
-      <c r="B124" s="311"/>
-      <c r="C124" s="311"/>
-      <c r="D124" s="311"/>
-      <c r="E124" s="311"/>
-      <c r="F124" s="311"/>
-      <c r="G124" s="311"/>
-      <c r="H124" s="311"/>
-      <c r="I124" s="311"/>
-      <c r="J124" s="311"/>
+      <c r="B124" s="309"/>
+      <c r="C124" s="309"/>
+      <c r="D124" s="309"/>
+      <c r="E124" s="309"/>
+      <c r="F124" s="309"/>
+      <c r="G124" s="309"/>
+      <c r="H124" s="309"/>
+      <c r="I124" s="309"/>
+      <c r="J124" s="309"/>
     </row>
     <row r="125" spans="1:10">
       <c r="A125" s="58"/>
@@ -13739,36 +13748,36 @@
       </c>
     </row>
     <row r="126" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A126" s="303" t="s">
+      <c r="A126" s="306" t="s">
         <v>52</v>
       </c>
-      <c r="B126" s="303" t="s">
+      <c r="B126" s="306" t="s">
         <v>53</v>
       </c>
-      <c r="C126" s="324" t="s">
+      <c r="C126" s="310" t="s">
         <v>54</v>
       </c>
-      <c r="D126" s="309" t="s">
+      <c r="D126" s="312" t="s">
         <v>55</v>
       </c>
-      <c r="E126" s="303" t="s">
+      <c r="E126" s="306" t="s">
         <v>56</v>
       </c>
-      <c r="F126" s="303"/>
-      <c r="G126" s="303" t="s">
+      <c r="F126" s="306"/>
+      <c r="G126" s="306" t="s">
         <v>57</v>
       </c>
-      <c r="H126" s="303"/>
-      <c r="I126" s="303" t="s">
+      <c r="H126" s="306"/>
+      <c r="I126" s="306" t="s">
         <v>58</v>
       </c>
-      <c r="J126" s="303"/>
+      <c r="J126" s="306"/>
     </row>
     <row r="127" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A127" s="303"/>
-      <c r="B127" s="303"/>
-      <c r="C127" s="325"/>
-      <c r="D127" s="309"/>
+      <c r="A127" s="306"/>
+      <c r="B127" s="306"/>
+      <c r="C127" s="311"/>
+      <c r="D127" s="312"/>
       <c r="E127" s="62" t="s">
         <v>59</v>
       </c>
@@ -13977,10 +13986,10 @@
       </c>
     </row>
     <row r="134" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A134" s="304" t="s">
+      <c r="A134" s="303" t="s">
         <v>63</v>
       </c>
-      <c r="B134" s="304"/>
+      <c r="B134" s="303"/>
       <c r="C134" s="76">
         <v>29</v>
       </c>
@@ -14071,10 +14080,10 @@
       </c>
     </row>
     <row r="137" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A137" s="304" t="s">
+      <c r="A137" s="303" t="s">
         <v>66</v>
       </c>
-      <c r="B137" s="304"/>
+      <c r="B137" s="303"/>
       <c r="C137" s="76">
         <v>23</v>
       </c>
@@ -14101,10 +14110,10 @@
       </c>
     </row>
     <row r="138" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A138" s="305" t="s">
+      <c r="A138" s="304" t="s">
         <v>67</v>
       </c>
-      <c r="B138" s="305"/>
+      <c r="B138" s="304"/>
       <c r="C138" s="77">
         <v>52</v>
       </c>
@@ -14132,18 +14141,18 @@
     </row>
     <row r="139" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="140" spans="1:10" s="111" customFormat="1" ht="20.25">
-      <c r="A140" s="311" t="s">
+      <c r="A140" s="309" t="s">
         <v>218</v>
       </c>
-      <c r="B140" s="311"/>
-      <c r="C140" s="311"/>
-      <c r="D140" s="311"/>
-      <c r="E140" s="311"/>
-      <c r="F140" s="311"/>
-      <c r="G140" s="311"/>
-      <c r="H140" s="311"/>
-      <c r="I140" s="311"/>
-      <c r="J140" s="311"/>
+      <c r="B140" s="309"/>
+      <c r="C140" s="309"/>
+      <c r="D140" s="309"/>
+      <c r="E140" s="309"/>
+      <c r="F140" s="309"/>
+      <c r="G140" s="309"/>
+      <c r="H140" s="309"/>
+      <c r="I140" s="309"/>
+      <c r="J140" s="309"/>
     </row>
     <row r="141" spans="1:10">
       <c r="A141" s="58"/>
@@ -14160,36 +14169,36 @@
       </c>
     </row>
     <row r="142" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A142" s="312" t="s">
+      <c r="A142" s="320" t="s">
         <v>52</v>
       </c>
-      <c r="B142" s="312" t="s">
+      <c r="B142" s="320" t="s">
         <v>53</v>
       </c>
-      <c r="C142" s="320" t="s">
+      <c r="C142" s="313" t="s">
         <v>54</v>
       </c>
-      <c r="D142" s="322" t="s">
+      <c r="D142" s="315" t="s">
         <v>55</v>
       </c>
-      <c r="E142" s="314" t="s">
+      <c r="E142" s="317" t="s">
         <v>56</v>
       </c>
-      <c r="F142" s="315"/>
-      <c r="G142" s="314" t="s">
+      <c r="F142" s="318"/>
+      <c r="G142" s="317" t="s">
         <v>57</v>
       </c>
-      <c r="H142" s="315"/>
-      <c r="I142" s="314" t="s">
+      <c r="H142" s="318"/>
+      <c r="I142" s="317" t="s">
         <v>58</v>
       </c>
-      <c r="J142" s="315"/>
+      <c r="J142" s="318"/>
     </row>
     <row r="143" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A143" s="313"/>
-      <c r="B143" s="313"/>
-      <c r="C143" s="321"/>
-      <c r="D143" s="323"/>
+      <c r="A143" s="321"/>
+      <c r="B143" s="321"/>
+      <c r="C143" s="314"/>
+      <c r="D143" s="316"/>
       <c r="E143" s="62" t="s">
         <v>59</v>
       </c>
@@ -14380,10 +14389,10 @@
       </c>
     </row>
     <row r="149" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A149" s="316" t="s">
+      <c r="A149" s="322" t="s">
         <v>63</v>
       </c>
-      <c r="B149" s="317"/>
+      <c r="B149" s="323"/>
       <c r="C149" s="67">
         <f t="shared" ref="C149:J149" si="7">SUM(C144:C148)</f>
         <v>31</v>
@@ -14516,10 +14525,10 @@
       </c>
     </row>
     <row r="153" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A153" s="316" t="s">
+      <c r="A153" s="322" t="s">
         <v>66</v>
       </c>
-      <c r="B153" s="317"/>
+      <c r="B153" s="323"/>
       <c r="C153" s="67">
         <f>SUM(C150:C152)</f>
         <v>31</v>
@@ -14554,10 +14563,10 @@
       </c>
     </row>
     <row r="154" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A154" s="318" t="s">
+      <c r="A154" s="324" t="s">
         <v>67</v>
       </c>
-      <c r="B154" s="319"/>
+      <c r="B154" s="325"/>
       <c r="C154" s="71">
         <f t="shared" ref="C154:J154" si="8">C149+C153</f>
         <v>62</v>
@@ -14592,18 +14601,18 @@
       </c>
     </row>
     <row r="156" spans="1:10" s="111" customFormat="1" ht="20.25">
-      <c r="A156" s="308" t="s">
+      <c r="A156" s="326" t="s">
         <v>282</v>
       </c>
-      <c r="B156" s="308"/>
-      <c r="C156" s="308"/>
-      <c r="D156" s="308"/>
-      <c r="E156" s="308"/>
-      <c r="F156" s="308"/>
-      <c r="G156" s="308"/>
-      <c r="H156" s="308"/>
-      <c r="I156" s="308"/>
-      <c r="J156" s="308"/>
+      <c r="B156" s="326"/>
+      <c r="C156" s="326"/>
+      <c r="D156" s="326"/>
+      <c r="E156" s="326"/>
+      <c r="F156" s="326"/>
+      <c r="G156" s="326"/>
+      <c r="H156" s="326"/>
+      <c r="I156" s="326"/>
+      <c r="J156" s="326"/>
     </row>
     <row r="157" spans="1:10">
       <c r="A157" s="37"/>
@@ -14619,36 +14628,36 @@
       </c>
     </row>
     <row r="158" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A158" s="303" t="s">
+      <c r="A158" s="306" t="s">
         <v>32</v>
       </c>
-      <c r="B158" s="303" t="s">
+      <c r="B158" s="306" t="s">
         <v>33</v>
       </c>
-      <c r="C158" s="306" t="s">
+      <c r="C158" s="307" t="s">
         <v>34</v>
       </c>
-      <c r="D158" s="309" t="s">
+      <c r="D158" s="312" t="s">
         <v>35</v>
       </c>
-      <c r="E158" s="303" t="s">
+      <c r="E158" s="306" t="s">
         <v>36</v>
       </c>
-      <c r="F158" s="303"/>
-      <c r="G158" s="303" t="s">
+      <c r="F158" s="306"/>
+      <c r="G158" s="306" t="s">
         <v>37</v>
       </c>
-      <c r="H158" s="303"/>
-      <c r="I158" s="303" t="s">
+      <c r="H158" s="306"/>
+      <c r="I158" s="306" t="s">
         <v>38</v>
       </c>
-      <c r="J158" s="303"/>
+      <c r="J158" s="306"/>
     </row>
     <row r="159" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A159" s="303"/>
-      <c r="B159" s="303"/>
-      <c r="C159" s="303"/>
-      <c r="D159" s="309"/>
+      <c r="A159" s="306"/>
+      <c r="B159" s="306"/>
+      <c r="C159" s="306"/>
+      <c r="D159" s="312"/>
       <c r="E159" s="40" t="s">
         <v>39</v>
       </c>
@@ -14929,10 +14938,10 @@
       </c>
     </row>
     <row r="168" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A168" s="310" t="s">
+      <c r="A168" s="319" t="s">
         <v>49</v>
       </c>
-      <c r="B168" s="310"/>
+      <c r="B168" s="319"/>
       <c r="C168" s="54">
         <f t="shared" ref="C168:J168" si="10">C164+C167</f>
         <v>78</v>
@@ -14968,17 +14977,77 @@
     </row>
   </sheetData>
   <mergeCells count="98">
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A45:J45"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="A156:J156"/>
+    <mergeCell ref="A158:A159"/>
+    <mergeCell ref="B158:B159"/>
+    <mergeCell ref="C158:C159"/>
+    <mergeCell ref="D158:D159"/>
+    <mergeCell ref="E158:F158"/>
+    <mergeCell ref="G158:H158"/>
+    <mergeCell ref="I158:J158"/>
+    <mergeCell ref="A168:B168"/>
+    <mergeCell ref="A140:J140"/>
+    <mergeCell ref="A142:A143"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="I142:J142"/>
+    <mergeCell ref="A149:B149"/>
+    <mergeCell ref="A153:B153"/>
+    <mergeCell ref="A154:B154"/>
+    <mergeCell ref="A124:J124"/>
+    <mergeCell ref="B142:B143"/>
+    <mergeCell ref="C142:C143"/>
+    <mergeCell ref="D142:D143"/>
+    <mergeCell ref="E142:F142"/>
+    <mergeCell ref="G142:H142"/>
+    <mergeCell ref="G126:H126"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="I126:J126"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="A137:B137"/>
+    <mergeCell ref="A138:B138"/>
+    <mergeCell ref="A126:A127"/>
+    <mergeCell ref="B126:B127"/>
+    <mergeCell ref="C126:C127"/>
+    <mergeCell ref="D126:D127"/>
+    <mergeCell ref="E126:F126"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="A88:J88"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="C109:C110"/>
+    <mergeCell ref="D109:D110"/>
+    <mergeCell ref="E109:F109"/>
+    <mergeCell ref="I91:J91"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="A107:J107"/>
+    <mergeCell ref="G91:H91"/>
+    <mergeCell ref="G109:H109"/>
+    <mergeCell ref="I109:J109"/>
     <mergeCell ref="A67:J67"/>
     <mergeCell ref="A91:A92"/>
     <mergeCell ref="B91:B92"/>
@@ -14995,77 +15064,17 @@
     <mergeCell ref="C70:C71"/>
     <mergeCell ref="D70:D71"/>
     <mergeCell ref="E70:F70"/>
-    <mergeCell ref="A88:J88"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="C109:C110"/>
-    <mergeCell ref="D109:D110"/>
-    <mergeCell ref="E109:F109"/>
-    <mergeCell ref="I91:J91"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="A104:B104"/>
-    <mergeCell ref="A107:J107"/>
-    <mergeCell ref="G91:H91"/>
-    <mergeCell ref="G109:H109"/>
-    <mergeCell ref="I109:J109"/>
-    <mergeCell ref="A118:B118"/>
-    <mergeCell ref="I126:J126"/>
-    <mergeCell ref="A134:B134"/>
-    <mergeCell ref="A137:B137"/>
-    <mergeCell ref="A138:B138"/>
-    <mergeCell ref="A126:A127"/>
-    <mergeCell ref="B126:B127"/>
-    <mergeCell ref="C126:C127"/>
-    <mergeCell ref="D126:D127"/>
-    <mergeCell ref="E126:F126"/>
-    <mergeCell ref="A121:B121"/>
-    <mergeCell ref="A122:B122"/>
-    <mergeCell ref="C142:C143"/>
-    <mergeCell ref="D142:D143"/>
-    <mergeCell ref="E142:F142"/>
-    <mergeCell ref="G142:H142"/>
-    <mergeCell ref="G126:H126"/>
-    <mergeCell ref="A168:B168"/>
-    <mergeCell ref="A140:J140"/>
-    <mergeCell ref="A142:A143"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="I142:J142"/>
-    <mergeCell ref="A149:B149"/>
-    <mergeCell ref="A153:B153"/>
-    <mergeCell ref="A154:B154"/>
-    <mergeCell ref="A124:J124"/>
-    <mergeCell ref="B142:B143"/>
-    <mergeCell ref="A156:J156"/>
-    <mergeCell ref="A158:A159"/>
-    <mergeCell ref="B158:B159"/>
-    <mergeCell ref="C158:C159"/>
-    <mergeCell ref="D158:D159"/>
-    <mergeCell ref="E158:F158"/>
-    <mergeCell ref="G158:H158"/>
-    <mergeCell ref="I158:J158"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A45:J45"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="I47:J47"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -15125,34 +15134,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="17.25" customHeight="1">
-      <c r="A1" s="287" t="s">
+      <c r="A1" s="285" t="s">
         <v>294</v>
       </c>
-      <c r="B1" s="287"/>
-      <c r="C1" s="287"/>
-      <c r="D1" s="287"/>
-      <c r="E1" s="287"/>
-      <c r="F1" s="287"/>
-      <c r="G1" s="287"/>
-      <c r="H1" s="287"/>
-      <c r="I1" s="287"/>
-      <c r="J1" s="287"/>
-      <c r="K1" s="287"/>
-      <c r="L1" s="287"/>
-      <c r="M1" s="287"/>
-      <c r="N1" s="287"/>
-      <c r="O1" s="287"/>
-      <c r="P1" s="287"/>
-      <c r="Q1" s="287"/>
-      <c r="R1" s="287"/>
-      <c r="S1" s="287"/>
-      <c r="T1" s="287"/>
-      <c r="U1" s="287"/>
-      <c r="V1" s="287"/>
-      <c r="W1" s="287"/>
-      <c r="X1" s="287"/>
-      <c r="Y1" s="287"/>
-      <c r="Z1" s="287"/>
+      <c r="B1" s="285"/>
+      <c r="C1" s="285"/>
+      <c r="D1" s="285"/>
+      <c r="E1" s="285"/>
+      <c r="F1" s="285"/>
+      <c r="G1" s="285"/>
+      <c r="H1" s="285"/>
+      <c r="I1" s="285"/>
+      <c r="J1" s="285"/>
+      <c r="K1" s="285"/>
+      <c r="L1" s="285"/>
+      <c r="M1" s="285"/>
+      <c r="N1" s="285"/>
+      <c r="O1" s="285"/>
+      <c r="P1" s="285"/>
+      <c r="Q1" s="285"/>
+      <c r="R1" s="285"/>
+      <c r="S1" s="285"/>
+      <c r="T1" s="285"/>
+      <c r="U1" s="285"/>
+      <c r="V1" s="285"/>
+      <c r="W1" s="285"/>
+      <c r="X1" s="285"/>
+      <c r="Y1" s="285"/>
+      <c r="Z1" s="285"/>
     </row>
     <row r="2" spans="1:27" s="11" customFormat="1" ht="9.75" customHeight="1">
       <c r="A2" s="15"/>
@@ -15182,34 +15191,34 @@
       <c r="AA2" s="103"/>
     </row>
     <row r="4" spans="1:27" ht="17.25" customHeight="1">
-      <c r="A4" s="328" t="s">
+      <c r="A4" s="332" t="s">
         <v>257</v>
       </c>
-      <c r="B4" s="328"/>
-      <c r="C4" s="328"/>
-      <c r="D4" s="328"/>
-      <c r="E4" s="328"/>
-      <c r="F4" s="328"/>
-      <c r="G4" s="328"/>
-      <c r="H4" s="328"/>
-      <c r="I4" s="328"/>
-      <c r="J4" s="328"/>
-      <c r="K4" s="328"/>
-      <c r="L4" s="328"/>
-      <c r="M4" s="328"/>
-      <c r="N4" s="328"/>
-      <c r="O4" s="328"/>
-      <c r="P4" s="328"/>
-      <c r="Q4" s="328"/>
-      <c r="R4" s="328"/>
-      <c r="S4" s="328"/>
-      <c r="T4" s="328"/>
-      <c r="U4" s="328"/>
-      <c r="V4" s="328"/>
-      <c r="W4" s="328"/>
-      <c r="X4" s="328"/>
-      <c r="Y4" s="328"/>
-      <c r="Z4" s="328"/>
+      <c r="B4" s="332"/>
+      <c r="C4" s="332"/>
+      <c r="D4" s="332"/>
+      <c r="E4" s="332"/>
+      <c r="F4" s="332"/>
+      <c r="G4" s="332"/>
+      <c r="H4" s="332"/>
+      <c r="I4" s="332"/>
+      <c r="J4" s="332"/>
+      <c r="K4" s="332"/>
+      <c r="L4" s="332"/>
+      <c r="M4" s="332"/>
+      <c r="N4" s="332"/>
+      <c r="O4" s="332"/>
+      <c r="P4" s="332"/>
+      <c r="Q4" s="332"/>
+      <c r="R4" s="332"/>
+      <c r="S4" s="332"/>
+      <c r="T4" s="332"/>
+      <c r="U4" s="332"/>
+      <c r="V4" s="332"/>
+      <c r="W4" s="332"/>
+      <c r="X4" s="332"/>
+      <c r="Y4" s="332"/>
+      <c r="Z4" s="332"/>
     </row>
     <row r="5" spans="1:27" ht="17.25" customHeight="1">
       <c r="A5" s="104"/>
@@ -15242,96 +15251,96 @@
       </c>
     </row>
     <row r="6" spans="1:27" ht="17.25" customHeight="1">
-      <c r="A6" s="329" t="s">
+      <c r="A6" s="333" t="s">
         <v>230</v>
       </c>
-      <c r="B6" s="329" t="s">
+      <c r="B6" s="333" t="s">
         <v>259</v>
       </c>
-      <c r="C6" s="331" t="s">
+      <c r="C6" s="336" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="332"/>
-      <c r="E6" s="331" t="s">
+      <c r="D6" s="337"/>
+      <c r="E6" s="336" t="s">
         <v>260</v>
       </c>
-      <c r="F6" s="332"/>
-      <c r="G6" s="335" t="s">
+      <c r="F6" s="337"/>
+      <c r="G6" s="340" t="s">
         <v>1</v>
       </c>
-      <c r="H6" s="336"/>
-      <c r="I6" s="336"/>
-      <c r="J6" s="336"/>
-      <c r="K6" s="336"/>
-      <c r="L6" s="337"/>
-      <c r="M6" s="338" t="s">
+      <c r="H6" s="341"/>
+      <c r="I6" s="341"/>
+      <c r="J6" s="341"/>
+      <c r="K6" s="341"/>
+      <c r="L6" s="342"/>
+      <c r="M6" s="343" t="s">
         <v>261</v>
       </c>
-      <c r="N6" s="338"/>
-      <c r="O6" s="338"/>
-      <c r="P6" s="338"/>
-      <c r="Q6" s="338"/>
-      <c r="R6" s="338"/>
-      <c r="S6" s="335" t="s">
+      <c r="N6" s="343"/>
+      <c r="O6" s="343"/>
+      <c r="P6" s="343"/>
+      <c r="Q6" s="343"/>
+      <c r="R6" s="343"/>
+      <c r="S6" s="340" t="s">
         <v>262</v>
       </c>
-      <c r="T6" s="336"/>
-      <c r="U6" s="336"/>
-      <c r="V6" s="337"/>
-      <c r="W6" s="335" t="s">
+      <c r="T6" s="341"/>
+      <c r="U6" s="341"/>
+      <c r="V6" s="342"/>
+      <c r="W6" s="340" t="s">
         <v>263</v>
       </c>
-      <c r="X6" s="336"/>
-      <c r="Y6" s="336"/>
-      <c r="Z6" s="337"/>
+      <c r="X6" s="341"/>
+      <c r="Y6" s="341"/>
+      <c r="Z6" s="342"/>
     </row>
     <row r="7" spans="1:27" ht="17.25" customHeight="1">
-      <c r="A7" s="330"/>
-      <c r="B7" s="330"/>
-      <c r="C7" s="333"/>
-      <c r="D7" s="334"/>
-      <c r="E7" s="333"/>
-      <c r="F7" s="334"/>
-      <c r="G7" s="335" t="s">
+      <c r="A7" s="334"/>
+      <c r="B7" s="334"/>
+      <c r="C7" s="338"/>
+      <c r="D7" s="339"/>
+      <c r="E7" s="338"/>
+      <c r="F7" s="339"/>
+      <c r="G7" s="340" t="s">
         <v>264</v>
       </c>
-      <c r="H7" s="337"/>
-      <c r="I7" s="335" t="s">
+      <c r="H7" s="342"/>
+      <c r="I7" s="340" t="s">
         <v>265</v>
       </c>
-      <c r="J7" s="337"/>
-      <c r="K7" s="335" t="s">
+      <c r="J7" s="342"/>
+      <c r="K7" s="340" t="s">
         <v>266</v>
       </c>
-      <c r="L7" s="337"/>
-      <c r="M7" s="335" t="s">
+      <c r="L7" s="342"/>
+      <c r="M7" s="340" t="s">
         <v>264</v>
       </c>
-      <c r="N7" s="337"/>
-      <c r="O7" s="335" t="s">
+      <c r="N7" s="342"/>
+      <c r="O7" s="340" t="s">
         <v>265</v>
       </c>
-      <c r="P7" s="337"/>
-      <c r="Q7" s="335" t="s">
+      <c r="P7" s="342"/>
+      <c r="Q7" s="340" t="s">
         <v>267</v>
       </c>
-      <c r="R7" s="337"/>
-      <c r="S7" s="338" t="s">
+      <c r="R7" s="342"/>
+      <c r="S7" s="343" t="s">
         <v>268</v>
       </c>
-      <c r="T7" s="338"/>
-      <c r="U7" s="338" t="s">
+      <c r="T7" s="343"/>
+      <c r="U7" s="343" t="s">
         <v>27</v>
       </c>
-      <c r="V7" s="338"/>
-      <c r="W7" s="339" t="s">
+      <c r="V7" s="343"/>
+      <c r="W7" s="344" t="s">
         <v>269</v>
       </c>
-      <c r="X7" s="339"/>
-      <c r="Y7" s="339" t="s">
+      <c r="X7" s="344"/>
+      <c r="Y7" s="344" t="s">
         <v>270</v>
       </c>
-      <c r="Z7" s="339"/>
+      <c r="Z7" s="344"/>
     </row>
     <row r="8" spans="1:27" ht="17.25" customHeight="1">
       <c r="A8" s="5"/>
@@ -16290,10 +16299,10 @@
       </c>
     </row>
     <row r="20" spans="1:26" ht="17.25" customHeight="1">
-      <c r="A20" s="326" t="s">
+      <c r="A20" s="330" t="s">
         <v>271</v>
       </c>
-      <c r="B20" s="327"/>
+      <c r="B20" s="331"/>
       <c r="C20" s="190">
         <v>446</v>
       </c>
@@ -16368,34 +16377,34 @@
       </c>
     </row>
     <row r="22" spans="1:26" s="175" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A22" s="328" t="s">
+      <c r="A22" s="332" t="s">
         <v>199</v>
       </c>
-      <c r="B22" s="328"/>
-      <c r="C22" s="328"/>
-      <c r="D22" s="328"/>
-      <c r="E22" s="328"/>
-      <c r="F22" s="328"/>
-      <c r="G22" s="328"/>
-      <c r="H22" s="328"/>
-      <c r="I22" s="328"/>
-      <c r="J22" s="328"/>
-      <c r="K22" s="328"/>
-      <c r="L22" s="328"/>
-      <c r="M22" s="328"/>
-      <c r="N22" s="328"/>
-      <c r="O22" s="328"/>
-      <c r="P22" s="328"/>
-      <c r="Q22" s="328"/>
-      <c r="R22" s="328"/>
-      <c r="S22" s="328"/>
-      <c r="T22" s="328"/>
-      <c r="U22" s="328"/>
-      <c r="V22" s="328"/>
-      <c r="W22" s="328"/>
-      <c r="X22" s="328"/>
-      <c r="Y22" s="328"/>
-      <c r="Z22" s="328"/>
+      <c r="B22" s="332"/>
+      <c r="C22" s="332"/>
+      <c r="D22" s="332"/>
+      <c r="E22" s="332"/>
+      <c r="F22" s="332"/>
+      <c r="G22" s="332"/>
+      <c r="H22" s="332"/>
+      <c r="I22" s="332"/>
+      <c r="J22" s="332"/>
+      <c r="K22" s="332"/>
+      <c r="L22" s="332"/>
+      <c r="M22" s="332"/>
+      <c r="N22" s="332"/>
+      <c r="O22" s="332"/>
+      <c r="P22" s="332"/>
+      <c r="Q22" s="332"/>
+      <c r="R22" s="332"/>
+      <c r="S22" s="332"/>
+      <c r="T22" s="332"/>
+      <c r="U22" s="332"/>
+      <c r="V22" s="332"/>
+      <c r="W22" s="332"/>
+      <c r="X22" s="332"/>
+      <c r="Y22" s="332"/>
+      <c r="Z22" s="332"/>
     </row>
     <row r="23" spans="1:26" s="176" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="104"/>
@@ -16426,100 +16435,100 @@
       </c>
     </row>
     <row r="24" spans="1:26" s="177" customFormat="1" ht="18" customHeight="1">
-      <c r="A24" s="329" t="s">
+      <c r="A24" s="333" t="s">
         <v>173</v>
       </c>
-      <c r="B24" s="329" t="s">
+      <c r="B24" s="333" t="s">
         <v>200</v>
       </c>
-      <c r="C24" s="331" t="s">
+      <c r="C24" s="336" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="332"/>
-      <c r="E24" s="331" t="s">
+      <c r="D24" s="337"/>
+      <c r="E24" s="336" t="s">
         <v>201</v>
       </c>
-      <c r="F24" s="332"/>
-      <c r="G24" s="335" t="s">
+      <c r="F24" s="337"/>
+      <c r="G24" s="340" t="s">
         <v>1</v>
       </c>
-      <c r="H24" s="336"/>
-      <c r="I24" s="336"/>
-      <c r="J24" s="336"/>
-      <c r="K24" s="336"/>
-      <c r="L24" s="337"/>
-      <c r="M24" s="338" t="s">
+      <c r="H24" s="341"/>
+      <c r="I24" s="341"/>
+      <c r="J24" s="341"/>
+      <c r="K24" s="341"/>
+      <c r="L24" s="342"/>
+      <c r="M24" s="343" t="s">
         <v>202</v>
       </c>
-      <c r="N24" s="338"/>
-      <c r="O24" s="338"/>
-      <c r="P24" s="338"/>
-      <c r="Q24" s="338"/>
-      <c r="R24" s="338"/>
-      <c r="S24" s="335" t="s">
+      <c r="N24" s="343"/>
+      <c r="O24" s="343"/>
+      <c r="P24" s="343"/>
+      <c r="Q24" s="343"/>
+      <c r="R24" s="343"/>
+      <c r="S24" s="340" t="s">
         <v>203</v>
       </c>
-      <c r="T24" s="336"/>
-      <c r="U24" s="336"/>
-      <c r="V24" s="337"/>
-      <c r="W24" s="335" t="s">
+      <c r="T24" s="341"/>
+      <c r="U24" s="341"/>
+      <c r="V24" s="342"/>
+      <c r="W24" s="340" t="s">
         <v>204</v>
       </c>
-      <c r="X24" s="336"/>
-      <c r="Y24" s="336"/>
-      <c r="Z24" s="337"/>
+      <c r="X24" s="341"/>
+      <c r="Y24" s="341"/>
+      <c r="Z24" s="342"/>
     </row>
     <row r="25" spans="1:26" s="177" customFormat="1" ht="18" customHeight="1">
-      <c r="A25" s="330"/>
-      <c r="B25" s="330"/>
-      <c r="C25" s="333"/>
-      <c r="D25" s="334"/>
-      <c r="E25" s="333"/>
-      <c r="F25" s="334"/>
-      <c r="G25" s="335" t="s">
+      <c r="A25" s="334"/>
+      <c r="B25" s="334"/>
+      <c r="C25" s="338"/>
+      <c r="D25" s="339"/>
+      <c r="E25" s="338"/>
+      <c r="F25" s="339"/>
+      <c r="G25" s="340" t="s">
         <v>205</v>
       </c>
-      <c r="H25" s="337"/>
-      <c r="I25" s="335" t="s">
+      <c r="H25" s="342"/>
+      <c r="I25" s="340" t="s">
         <v>206</v>
       </c>
-      <c r="J25" s="337"/>
-      <c r="K25" s="335" t="s">
+      <c r="J25" s="342"/>
+      <c r="K25" s="340" t="s">
         <v>207</v>
       </c>
-      <c r="L25" s="337"/>
-      <c r="M25" s="335" t="s">
+      <c r="L25" s="342"/>
+      <c r="M25" s="340" t="s">
         <v>205</v>
       </c>
-      <c r="N25" s="337"/>
-      <c r="O25" s="335" t="s">
+      <c r="N25" s="342"/>
+      <c r="O25" s="340" t="s">
         <v>206</v>
       </c>
-      <c r="P25" s="337"/>
-      <c r="Q25" s="335" t="s">
+      <c r="P25" s="342"/>
+      <c r="Q25" s="340" t="s">
         <v>208</v>
       </c>
-      <c r="R25" s="337"/>
-      <c r="S25" s="338" t="s">
+      <c r="R25" s="342"/>
+      <c r="S25" s="343" t="s">
         <v>209</v>
       </c>
-      <c r="T25" s="338"/>
-      <c r="U25" s="338" t="s">
+      <c r="T25" s="343"/>
+      <c r="U25" s="343" t="s">
         <v>27</v>
       </c>
-      <c r="V25" s="338"/>
-      <c r="W25" s="339" t="s">
+      <c r="V25" s="343"/>
+      <c r="W25" s="344" t="s">
         <v>210</v>
       </c>
-      <c r="X25" s="339"/>
-      <c r="Y25" s="339" t="s">
+      <c r="X25" s="344"/>
+      <c r="Y25" s="344" t="s">
         <v>211</v>
       </c>
-      <c r="Z25" s="339"/>
+      <c r="Z25" s="344"/>
     </row>
     <row r="26" spans="1:26" s="177" customFormat="1" ht="18" customHeight="1">
-      <c r="A26" s="345"/>
-      <c r="B26" s="345"/>
+      <c r="A26" s="335"/>
+      <c r="B26" s="335"/>
       <c r="C26" s="178" t="s">
         <v>212</v>
       </c>
@@ -17434,10 +17443,10 @@
       </c>
     </row>
     <row r="37" spans="1:26" s="175" customFormat="1" ht="18" customHeight="1">
-      <c r="A37" s="326" t="s">
+      <c r="A37" s="330" t="s">
         <v>214</v>
       </c>
-      <c r="B37" s="327"/>
+      <c r="B37" s="331"/>
       <c r="C37" s="190" t="e">
         <f>SUM(C27:C36)</f>
         <v>#REF!</v>
@@ -17516,34 +17525,34 @@
       </c>
     </row>
     <row r="39" spans="1:26" ht="17.25" customHeight="1">
-      <c r="A39" s="328" t="s">
+      <c r="A39" s="332" t="s">
         <v>98</v>
       </c>
-      <c r="B39" s="328"/>
-      <c r="C39" s="328"/>
-      <c r="D39" s="328"/>
-      <c r="E39" s="328"/>
-      <c r="F39" s="328"/>
-      <c r="G39" s="328"/>
-      <c r="H39" s="328"/>
-      <c r="I39" s="328"/>
-      <c r="J39" s="328"/>
-      <c r="K39" s="328"/>
-      <c r="L39" s="328"/>
-      <c r="M39" s="328"/>
-      <c r="N39" s="328"/>
-      <c r="O39" s="328"/>
-      <c r="P39" s="328"/>
-      <c r="Q39" s="328"/>
-      <c r="R39" s="328"/>
-      <c r="S39" s="328"/>
-      <c r="T39" s="328"/>
-      <c r="U39" s="328"/>
-      <c r="V39" s="328"/>
-      <c r="W39" s="328"/>
-      <c r="X39" s="328"/>
-      <c r="Y39" s="328"/>
-      <c r="Z39" s="328"/>
+      <c r="B39" s="332"/>
+      <c r="C39" s="332"/>
+      <c r="D39" s="332"/>
+      <c r="E39" s="332"/>
+      <c r="F39" s="332"/>
+      <c r="G39" s="332"/>
+      <c r="H39" s="332"/>
+      <c r="I39" s="332"/>
+      <c r="J39" s="332"/>
+      <c r="K39" s="332"/>
+      <c r="L39" s="332"/>
+      <c r="M39" s="332"/>
+      <c r="N39" s="332"/>
+      <c r="O39" s="332"/>
+      <c r="P39" s="332"/>
+      <c r="Q39" s="332"/>
+      <c r="R39" s="332"/>
+      <c r="S39" s="332"/>
+      <c r="T39" s="332"/>
+      <c r="U39" s="332"/>
+      <c r="V39" s="332"/>
+      <c r="W39" s="332"/>
+      <c r="X39" s="332"/>
+      <c r="Y39" s="332"/>
+      <c r="Z39" s="332"/>
     </row>
     <row r="40" spans="1:26" s="106" customFormat="1" ht="11.25">
       <c r="A40" s="104"/>
@@ -17574,100 +17583,100 @@
       </c>
     </row>
     <row r="41" spans="1:26" s="2" customFormat="1" ht="13.5">
-      <c r="A41" s="329" t="s">
-        <v>0</v>
-      </c>
-      <c r="B41" s="329" t="s">
+      <c r="A41" s="333" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" s="333" t="s">
         <v>25</v>
       </c>
-      <c r="C41" s="346" t="s">
+      <c r="C41" s="345" t="s">
         <v>20</v>
       </c>
-      <c r="D41" s="347"/>
-      <c r="E41" s="346" t="s">
+      <c r="D41" s="346"/>
+      <c r="E41" s="345" t="s">
         <v>19</v>
       </c>
-      <c r="F41" s="347"/>
-      <c r="G41" s="341" t="s">
+      <c r="F41" s="346"/>
+      <c r="G41" s="327" t="s">
         <v>1</v>
       </c>
-      <c r="H41" s="342"/>
-      <c r="I41" s="342"/>
-      <c r="J41" s="342"/>
-      <c r="K41" s="342"/>
-      <c r="L41" s="343"/>
-      <c r="M41" s="344" t="s">
+      <c r="H41" s="329"/>
+      <c r="I41" s="329"/>
+      <c r="J41" s="329"/>
+      <c r="K41" s="329"/>
+      <c r="L41" s="328"/>
+      <c r="M41" s="350" t="s">
         <v>99</v>
       </c>
-      <c r="N41" s="344"/>
-      <c r="O41" s="344"/>
-      <c r="P41" s="344"/>
-      <c r="Q41" s="344"/>
-      <c r="R41" s="344"/>
-      <c r="S41" s="341" t="s">
+      <c r="N41" s="350"/>
+      <c r="O41" s="350"/>
+      <c r="P41" s="350"/>
+      <c r="Q41" s="350"/>
+      <c r="R41" s="350"/>
+      <c r="S41" s="327" t="s">
         <v>100</v>
       </c>
-      <c r="T41" s="342"/>
-      <c r="U41" s="342"/>
-      <c r="V41" s="343"/>
-      <c r="W41" s="341" t="s">
+      <c r="T41" s="329"/>
+      <c r="U41" s="329"/>
+      <c r="V41" s="328"/>
+      <c r="W41" s="327" t="s">
         <v>101</v>
       </c>
-      <c r="X41" s="342"/>
-      <c r="Y41" s="342"/>
-      <c r="Z41" s="343"/>
+      <c r="X41" s="329"/>
+      <c r="Y41" s="329"/>
+      <c r="Z41" s="328"/>
     </row>
     <row r="42" spans="1:26" s="2" customFormat="1" ht="13.5">
-      <c r="A42" s="330"/>
-      <c r="B42" s="330"/>
-      <c r="C42" s="348"/>
-      <c r="D42" s="349"/>
-      <c r="E42" s="348"/>
-      <c r="F42" s="349"/>
-      <c r="G42" s="341" t="s">
+      <c r="A42" s="334"/>
+      <c r="B42" s="334"/>
+      <c r="C42" s="347"/>
+      <c r="D42" s="348"/>
+      <c r="E42" s="347"/>
+      <c r="F42" s="348"/>
+      <c r="G42" s="327" t="s">
         <v>14</v>
       </c>
-      <c r="H42" s="343"/>
-      <c r="I42" s="341" t="s">
+      <c r="H42" s="328"/>
+      <c r="I42" s="327" t="s">
         <v>18</v>
       </c>
-      <c r="J42" s="343"/>
-      <c r="K42" s="341" t="s">
+      <c r="J42" s="328"/>
+      <c r="K42" s="327" t="s">
         <v>21</v>
       </c>
-      <c r="L42" s="343"/>
-      <c r="M42" s="341" t="s">
+      <c r="L42" s="328"/>
+      <c r="M42" s="327" t="s">
         <v>14</v>
       </c>
-      <c r="N42" s="343"/>
-      <c r="O42" s="341" t="s">
+      <c r="N42" s="328"/>
+      <c r="O42" s="327" t="s">
         <v>18</v>
       </c>
-      <c r="P42" s="343"/>
-      <c r="Q42" s="341" t="s">
+      <c r="P42" s="328"/>
+      <c r="Q42" s="327" t="s">
         <v>28</v>
       </c>
-      <c r="R42" s="343"/>
-      <c r="S42" s="344" t="s">
+      <c r="R42" s="328"/>
+      <c r="S42" s="350" t="s">
         <v>93</v>
       </c>
-      <c r="T42" s="344"/>
-      <c r="U42" s="344" t="s">
+      <c r="T42" s="350"/>
+      <c r="U42" s="350" t="s">
         <v>27</v>
       </c>
-      <c r="V42" s="344"/>
-      <c r="W42" s="340" t="s">
+      <c r="V42" s="350"/>
+      <c r="W42" s="351" t="s">
         <v>102</v>
       </c>
-      <c r="X42" s="340"/>
-      <c r="Y42" s="340" t="s">
+      <c r="X42" s="351"/>
+      <c r="Y42" s="351" t="s">
         <v>103</v>
       </c>
-      <c r="Z42" s="340"/>
+      <c r="Z42" s="351"/>
     </row>
     <row r="43" spans="1:26" s="2" customFormat="1" ht="13.5">
-      <c r="A43" s="345"/>
-      <c r="B43" s="345"/>
+      <c r="A43" s="335"/>
+      <c r="B43" s="335"/>
       <c r="C43" s="3" t="s">
         <v>24</v>
       </c>
@@ -18622,10 +18631,10 @@
       </c>
     </row>
     <row r="54" spans="1:26" ht="17.25" customHeight="1">
-      <c r="A54" s="326" t="s">
+      <c r="A54" s="330" t="s">
         <v>17</v>
       </c>
-      <c r="B54" s="327"/>
+      <c r="B54" s="331"/>
       <c r="C54" s="122">
         <f>SUM(C44:C53)</f>
         <v>332</v>
@@ -18724,34 +18733,34 @@
       </c>
     </row>
     <row r="56" spans="1:26" ht="17.25" customHeight="1">
-      <c r="A56" s="328" t="s">
+      <c r="A56" s="332" t="s">
         <v>97</v>
       </c>
-      <c r="B56" s="328"/>
-      <c r="C56" s="328"/>
-      <c r="D56" s="328"/>
-      <c r="E56" s="328"/>
-      <c r="F56" s="328"/>
-      <c r="G56" s="328"/>
-      <c r="H56" s="328"/>
-      <c r="I56" s="328"/>
-      <c r="J56" s="328"/>
-      <c r="K56" s="328"/>
-      <c r="L56" s="328"/>
-      <c r="M56" s="328"/>
-      <c r="N56" s="328"/>
-      <c r="O56" s="328"/>
-      <c r="P56" s="328"/>
-      <c r="Q56" s="328"/>
-      <c r="R56" s="328"/>
-      <c r="S56" s="328"/>
-      <c r="T56" s="328"/>
-      <c r="U56" s="328"/>
-      <c r="V56" s="328"/>
-      <c r="W56" s="328"/>
-      <c r="X56" s="328"/>
-      <c r="Y56" s="328"/>
-      <c r="Z56" s="328"/>
+      <c r="B56" s="332"/>
+      <c r="C56" s="332"/>
+      <c r="D56" s="332"/>
+      <c r="E56" s="332"/>
+      <c r="F56" s="332"/>
+      <c r="G56" s="332"/>
+      <c r="H56" s="332"/>
+      <c r="I56" s="332"/>
+      <c r="J56" s="332"/>
+      <c r="K56" s="332"/>
+      <c r="L56" s="332"/>
+      <c r="M56" s="332"/>
+      <c r="N56" s="332"/>
+      <c r="O56" s="332"/>
+      <c r="P56" s="332"/>
+      <c r="Q56" s="332"/>
+      <c r="R56" s="332"/>
+      <c r="S56" s="332"/>
+      <c r="T56" s="332"/>
+      <c r="U56" s="332"/>
+      <c r="V56" s="332"/>
+      <c r="W56" s="332"/>
+      <c r="X56" s="332"/>
+      <c r="Y56" s="332"/>
+      <c r="Z56" s="332"/>
     </row>
     <row r="57" spans="1:26" s="106" customFormat="1" ht="11.25">
       <c r="A57" s="104"/>
@@ -18782,100 +18791,100 @@
       </c>
     </row>
     <row r="58" spans="1:26" s="2" customFormat="1" ht="13.5">
-      <c r="A58" s="329" t="s">
-        <v>0</v>
-      </c>
-      <c r="B58" s="329" t="s">
+      <c r="A58" s="333" t="s">
+        <v>0</v>
+      </c>
+      <c r="B58" s="333" t="s">
         <v>25</v>
       </c>
-      <c r="C58" s="346" t="s">
+      <c r="C58" s="345" t="s">
         <v>20</v>
       </c>
-      <c r="D58" s="347"/>
-      <c r="E58" s="346" t="s">
+      <c r="D58" s="346"/>
+      <c r="E58" s="345" t="s">
         <v>19</v>
       </c>
-      <c r="F58" s="347"/>
-      <c r="G58" s="341" t="s">
+      <c r="F58" s="346"/>
+      <c r="G58" s="327" t="s">
         <v>1</v>
       </c>
-      <c r="H58" s="342"/>
-      <c r="I58" s="342"/>
-      <c r="J58" s="342"/>
-      <c r="K58" s="342"/>
-      <c r="L58" s="343"/>
-      <c r="M58" s="344" t="s">
+      <c r="H58" s="329"/>
+      <c r="I58" s="329"/>
+      <c r="J58" s="329"/>
+      <c r="K58" s="329"/>
+      <c r="L58" s="328"/>
+      <c r="M58" s="350" t="s">
         <v>99</v>
       </c>
-      <c r="N58" s="344"/>
-      <c r="O58" s="344"/>
-      <c r="P58" s="344"/>
-      <c r="Q58" s="344"/>
-      <c r="R58" s="344"/>
-      <c r="S58" s="341" t="s">
+      <c r="N58" s="350"/>
+      <c r="O58" s="350"/>
+      <c r="P58" s="350"/>
+      <c r="Q58" s="350"/>
+      <c r="R58" s="350"/>
+      <c r="S58" s="327" t="s">
         <v>100</v>
       </c>
-      <c r="T58" s="342"/>
-      <c r="U58" s="342"/>
-      <c r="V58" s="343"/>
-      <c r="W58" s="341" t="s">
+      <c r="T58" s="329"/>
+      <c r="U58" s="329"/>
+      <c r="V58" s="328"/>
+      <c r="W58" s="327" t="s">
         <v>101</v>
       </c>
-      <c r="X58" s="342"/>
-      <c r="Y58" s="342"/>
-      <c r="Z58" s="343"/>
+      <c r="X58" s="329"/>
+      <c r="Y58" s="329"/>
+      <c r="Z58" s="328"/>
     </row>
     <row r="59" spans="1:26" s="2" customFormat="1" ht="13.5">
-      <c r="A59" s="330"/>
-      <c r="B59" s="330"/>
-      <c r="C59" s="348"/>
-      <c r="D59" s="349"/>
-      <c r="E59" s="348"/>
-      <c r="F59" s="349"/>
-      <c r="G59" s="341" t="s">
+      <c r="A59" s="334"/>
+      <c r="B59" s="334"/>
+      <c r="C59" s="347"/>
+      <c r="D59" s="348"/>
+      <c r="E59" s="347"/>
+      <c r="F59" s="348"/>
+      <c r="G59" s="327" t="s">
         <v>14</v>
       </c>
-      <c r="H59" s="343"/>
-      <c r="I59" s="341" t="s">
+      <c r="H59" s="328"/>
+      <c r="I59" s="327" t="s">
         <v>18</v>
       </c>
-      <c r="J59" s="343"/>
-      <c r="K59" s="341" t="s">
+      <c r="J59" s="328"/>
+      <c r="K59" s="327" t="s">
         <v>21</v>
       </c>
-      <c r="L59" s="343"/>
-      <c r="M59" s="341" t="s">
+      <c r="L59" s="328"/>
+      <c r="M59" s="327" t="s">
         <v>14</v>
       </c>
-      <c r="N59" s="343"/>
-      <c r="O59" s="341" t="s">
+      <c r="N59" s="328"/>
+      <c r="O59" s="327" t="s">
         <v>18</v>
       </c>
-      <c r="P59" s="343"/>
-      <c r="Q59" s="341" t="s">
+      <c r="P59" s="328"/>
+      <c r="Q59" s="327" t="s">
         <v>28</v>
       </c>
-      <c r="R59" s="343"/>
-      <c r="S59" s="344" t="s">
+      <c r="R59" s="328"/>
+      <c r="S59" s="350" t="s">
         <v>93</v>
       </c>
-      <c r="T59" s="344"/>
-      <c r="U59" s="344" t="s">
+      <c r="T59" s="350"/>
+      <c r="U59" s="350" t="s">
         <v>27</v>
       </c>
-      <c r="V59" s="344"/>
-      <c r="W59" s="340" t="s">
+      <c r="V59" s="350"/>
+      <c r="W59" s="351" t="s">
         <v>102</v>
       </c>
-      <c r="X59" s="340"/>
-      <c r="Y59" s="340" t="s">
+      <c r="X59" s="351"/>
+      <c r="Y59" s="351" t="s">
         <v>103</v>
       </c>
-      <c r="Z59" s="340"/>
+      <c r="Z59" s="351"/>
     </row>
     <row r="60" spans="1:26" s="2" customFormat="1" ht="13.5">
-      <c r="A60" s="345"/>
-      <c r="B60" s="345"/>
+      <c r="A60" s="335"/>
+      <c r="B60" s="335"/>
       <c r="C60" s="3" t="s">
         <v>24</v>
       </c>
@@ -19750,10 +19759,10 @@
       </c>
     </row>
     <row r="71" spans="1:28" ht="17.25" customHeight="1">
-      <c r="A71" s="326" t="s">
+      <c r="A71" s="330" t="s">
         <v>17</v>
       </c>
-      <c r="B71" s="327"/>
+      <c r="B71" s="331"/>
       <c r="C71" s="122">
         <f>SUM(C61:C70)</f>
         <v>352</v>
@@ -19852,34 +19861,34 @@
       </c>
     </row>
     <row r="73" spans="1:28" ht="17.25" customHeight="1">
-      <c r="A73" s="350" t="s">
+      <c r="A73" s="349" t="s">
         <v>96</v>
       </c>
-      <c r="B73" s="350"/>
-      <c r="C73" s="350"/>
-      <c r="D73" s="350"/>
-      <c r="E73" s="350"/>
-      <c r="F73" s="350"/>
-      <c r="G73" s="350"/>
-      <c r="H73" s="350"/>
-      <c r="I73" s="350"/>
-      <c r="J73" s="350"/>
-      <c r="K73" s="350"/>
-      <c r="L73" s="350"/>
-      <c r="M73" s="350"/>
-      <c r="N73" s="350"/>
-      <c r="O73" s="350"/>
-      <c r="P73" s="350"/>
-      <c r="Q73" s="350"/>
-      <c r="R73" s="350"/>
-      <c r="S73" s="350"/>
-      <c r="T73" s="350"/>
-      <c r="U73" s="350"/>
-      <c r="V73" s="350"/>
-      <c r="W73" s="350"/>
-      <c r="X73" s="350"/>
-      <c r="Y73" s="350"/>
-      <c r="Z73" s="350"/>
+      <c r="B73" s="349"/>
+      <c r="C73" s="349"/>
+      <c r="D73" s="349"/>
+      <c r="E73" s="349"/>
+      <c r="F73" s="349"/>
+      <c r="G73" s="349"/>
+      <c r="H73" s="349"/>
+      <c r="I73" s="349"/>
+      <c r="J73" s="349"/>
+      <c r="K73" s="349"/>
+      <c r="L73" s="349"/>
+      <c r="M73" s="349"/>
+      <c r="N73" s="349"/>
+      <c r="O73" s="349"/>
+      <c r="P73" s="349"/>
+      <c r="Q73" s="349"/>
+      <c r="R73" s="349"/>
+      <c r="S73" s="349"/>
+      <c r="T73" s="349"/>
+      <c r="U73" s="349"/>
+      <c r="V73" s="349"/>
+      <c r="W73" s="349"/>
+      <c r="X73" s="349"/>
+      <c r="Y73" s="349"/>
+      <c r="Z73" s="349"/>
     </row>
     <row r="74" spans="1:28" s="106" customFormat="1" ht="11.25">
       <c r="A74" s="104"/>
@@ -19910,100 +19919,100 @@
       </c>
     </row>
     <row r="75" spans="1:28" s="2" customFormat="1" ht="13.5">
-      <c r="A75" s="329" t="s">
-        <v>0</v>
-      </c>
-      <c r="B75" s="329" t="s">
+      <c r="A75" s="333" t="s">
+        <v>0</v>
+      </c>
+      <c r="B75" s="333" t="s">
         <v>25</v>
       </c>
-      <c r="C75" s="346" t="s">
+      <c r="C75" s="345" t="s">
         <v>20</v>
       </c>
-      <c r="D75" s="347"/>
-      <c r="E75" s="346" t="s">
+      <c r="D75" s="346"/>
+      <c r="E75" s="345" t="s">
         <v>19</v>
       </c>
-      <c r="F75" s="347"/>
-      <c r="G75" s="341" t="s">
+      <c r="F75" s="346"/>
+      <c r="G75" s="327" t="s">
         <v>1</v>
       </c>
-      <c r="H75" s="342"/>
-      <c r="I75" s="342"/>
-      <c r="J75" s="342"/>
-      <c r="K75" s="342"/>
-      <c r="L75" s="343"/>
-      <c r="M75" s="344" t="s">
+      <c r="H75" s="329"/>
+      <c r="I75" s="329"/>
+      <c r="J75" s="329"/>
+      <c r="K75" s="329"/>
+      <c r="L75" s="328"/>
+      <c r="M75" s="350" t="s">
         <v>99</v>
       </c>
-      <c r="N75" s="344"/>
-      <c r="O75" s="344"/>
-      <c r="P75" s="344"/>
-      <c r="Q75" s="344"/>
-      <c r="R75" s="344"/>
-      <c r="S75" s="341" t="s">
+      <c r="N75" s="350"/>
+      <c r="O75" s="350"/>
+      <c r="P75" s="350"/>
+      <c r="Q75" s="350"/>
+      <c r="R75" s="350"/>
+      <c r="S75" s="327" t="s">
         <v>100</v>
       </c>
-      <c r="T75" s="342"/>
-      <c r="U75" s="342"/>
-      <c r="V75" s="343"/>
-      <c r="W75" s="341" t="s">
+      <c r="T75" s="329"/>
+      <c r="U75" s="329"/>
+      <c r="V75" s="328"/>
+      <c r="W75" s="327" t="s">
         <v>101</v>
       </c>
-      <c r="X75" s="342"/>
-      <c r="Y75" s="342"/>
-      <c r="Z75" s="343"/>
+      <c r="X75" s="329"/>
+      <c r="Y75" s="329"/>
+      <c r="Z75" s="328"/>
     </row>
     <row r="76" spans="1:28" s="2" customFormat="1" ht="13.5">
-      <c r="A76" s="330"/>
-      <c r="B76" s="330"/>
-      <c r="C76" s="348"/>
-      <c r="D76" s="349"/>
-      <c r="E76" s="348"/>
-      <c r="F76" s="349"/>
-      <c r="G76" s="341" t="s">
+      <c r="A76" s="334"/>
+      <c r="B76" s="334"/>
+      <c r="C76" s="347"/>
+      <c r="D76" s="348"/>
+      <c r="E76" s="347"/>
+      <c r="F76" s="348"/>
+      <c r="G76" s="327" t="s">
         <v>14</v>
       </c>
-      <c r="H76" s="343"/>
-      <c r="I76" s="341" t="s">
+      <c r="H76" s="328"/>
+      <c r="I76" s="327" t="s">
         <v>18</v>
       </c>
-      <c r="J76" s="343"/>
-      <c r="K76" s="341" t="s">
+      <c r="J76" s="328"/>
+      <c r="K76" s="327" t="s">
         <v>21</v>
       </c>
-      <c r="L76" s="343"/>
-      <c r="M76" s="341" t="s">
+      <c r="L76" s="328"/>
+      <c r="M76" s="327" t="s">
         <v>14</v>
       </c>
-      <c r="N76" s="343"/>
-      <c r="O76" s="341" t="s">
+      <c r="N76" s="328"/>
+      <c r="O76" s="327" t="s">
         <v>18</v>
       </c>
-      <c r="P76" s="343"/>
-      <c r="Q76" s="341" t="s">
+      <c r="P76" s="328"/>
+      <c r="Q76" s="327" t="s">
         <v>28</v>
       </c>
-      <c r="R76" s="343"/>
-      <c r="S76" s="344" t="s">
+      <c r="R76" s="328"/>
+      <c r="S76" s="350" t="s">
         <v>93</v>
       </c>
-      <c r="T76" s="344"/>
-      <c r="U76" s="344" t="s">
+      <c r="T76" s="350"/>
+      <c r="U76" s="350" t="s">
         <v>27</v>
       </c>
-      <c r="V76" s="344"/>
-      <c r="W76" s="340" t="s">
+      <c r="V76" s="350"/>
+      <c r="W76" s="351" t="s">
         <v>102</v>
       </c>
-      <c r="X76" s="340"/>
-      <c r="Y76" s="340" t="s">
+      <c r="X76" s="351"/>
+      <c r="Y76" s="351" t="s">
         <v>103</v>
       </c>
-      <c r="Z76" s="340"/>
+      <c r="Z76" s="351"/>
     </row>
     <row r="77" spans="1:28" s="2" customFormat="1" ht="13.5">
-      <c r="A77" s="345"/>
-      <c r="B77" s="345"/>
+      <c r="A77" s="335"/>
+      <c r="B77" s="335"/>
       <c r="C77" s="3" t="s">
         <v>24</v>
       </c>
@@ -20982,10 +20991,10 @@
       </c>
     </row>
     <row r="89" spans="1:27" ht="17.25" customHeight="1">
-      <c r="A89" s="326" t="s">
+      <c r="A89" s="330" t="s">
         <v>17</v>
       </c>
-      <c r="B89" s="327"/>
+      <c r="B89" s="331"/>
       <c r="C89" s="122">
         <v>371</v>
       </c>
@@ -21064,10 +21073,10 @@
       </c>
     </row>
     <row r="90" spans="1:27" s="30" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A90" s="326" t="s">
+      <c r="A90" s="330" t="s">
         <v>26</v>
       </c>
-      <c r="B90" s="327"/>
+      <c r="B90" s="331"/>
       <c r="C90" s="127"/>
       <c r="D90" s="127"/>
       <c r="E90" s="127"/>
@@ -21157,34 +21166,34 @@
       <c r="AA91" s="103"/>
     </row>
     <row r="92" spans="1:27" ht="20.25">
-      <c r="A92" s="328" t="s">
+      <c r="A92" s="332" t="s">
         <v>95</v>
       </c>
-      <c r="B92" s="328"/>
-      <c r="C92" s="328"/>
-      <c r="D92" s="328"/>
-      <c r="E92" s="328"/>
-      <c r="F92" s="328"/>
-      <c r="G92" s="328"/>
-      <c r="H92" s="328"/>
-      <c r="I92" s="328"/>
-      <c r="J92" s="328"/>
-      <c r="K92" s="328"/>
-      <c r="L92" s="328"/>
-      <c r="M92" s="328"/>
-      <c r="N92" s="328"/>
-      <c r="O92" s="328"/>
-      <c r="P92" s="328"/>
-      <c r="Q92" s="328"/>
-      <c r="R92" s="328"/>
-      <c r="S92" s="328"/>
-      <c r="T92" s="328"/>
-      <c r="U92" s="328"/>
-      <c r="V92" s="328"/>
-      <c r="W92" s="328"/>
-      <c r="X92" s="328"/>
-      <c r="Y92" s="328"/>
-      <c r="Z92" s="328"/>
+      <c r="B92" s="332"/>
+      <c r="C92" s="332"/>
+      <c r="D92" s="332"/>
+      <c r="E92" s="332"/>
+      <c r="F92" s="332"/>
+      <c r="G92" s="332"/>
+      <c r="H92" s="332"/>
+      <c r="I92" s="332"/>
+      <c r="J92" s="332"/>
+      <c r="K92" s="332"/>
+      <c r="L92" s="332"/>
+      <c r="M92" s="332"/>
+      <c r="N92" s="332"/>
+      <c r="O92" s="332"/>
+      <c r="P92" s="332"/>
+      <c r="Q92" s="332"/>
+      <c r="R92" s="332"/>
+      <c r="S92" s="332"/>
+      <c r="T92" s="332"/>
+      <c r="U92" s="332"/>
+      <c r="V92" s="332"/>
+      <c r="W92" s="332"/>
+      <c r="X92" s="332"/>
+      <c r="Y92" s="332"/>
+      <c r="Z92" s="332"/>
     </row>
     <row r="93" spans="1:27" s="106" customFormat="1" ht="15.75" customHeight="1">
       <c r="A93" s="104"/>
@@ -21215,100 +21224,100 @@
       </c>
     </row>
     <row r="94" spans="1:27" s="2" customFormat="1" ht="13.5">
-      <c r="A94" s="329" t="s">
-        <v>0</v>
-      </c>
-      <c r="B94" s="329" t="s">
+      <c r="A94" s="333" t="s">
+        <v>0</v>
+      </c>
+      <c r="B94" s="333" t="s">
         <v>25</v>
       </c>
-      <c r="C94" s="346" t="s">
+      <c r="C94" s="345" t="s">
         <v>20</v>
       </c>
-      <c r="D94" s="347"/>
-      <c r="E94" s="346" t="s">
+      <c r="D94" s="346"/>
+      <c r="E94" s="345" t="s">
         <v>19</v>
       </c>
-      <c r="F94" s="347"/>
-      <c r="G94" s="341" t="s">
+      <c r="F94" s="346"/>
+      <c r="G94" s="327" t="s">
         <v>1</v>
       </c>
-      <c r="H94" s="342"/>
-      <c r="I94" s="342"/>
-      <c r="J94" s="342"/>
-      <c r="K94" s="342"/>
-      <c r="L94" s="343"/>
-      <c r="M94" s="344" t="s">
+      <c r="H94" s="329"/>
+      <c r="I94" s="329"/>
+      <c r="J94" s="329"/>
+      <c r="K94" s="329"/>
+      <c r="L94" s="328"/>
+      <c r="M94" s="350" t="s">
         <v>99</v>
       </c>
-      <c r="N94" s="344"/>
-      <c r="O94" s="344"/>
-      <c r="P94" s="344"/>
-      <c r="Q94" s="344"/>
-      <c r="R94" s="344"/>
-      <c r="S94" s="341" t="s">
+      <c r="N94" s="350"/>
+      <c r="O94" s="350"/>
+      <c r="P94" s="350"/>
+      <c r="Q94" s="350"/>
+      <c r="R94" s="350"/>
+      <c r="S94" s="327" t="s">
         <v>100</v>
       </c>
-      <c r="T94" s="342"/>
-      <c r="U94" s="342"/>
-      <c r="V94" s="343"/>
-      <c r="W94" s="341" t="s">
+      <c r="T94" s="329"/>
+      <c r="U94" s="329"/>
+      <c r="V94" s="328"/>
+      <c r="W94" s="327" t="s">
         <v>101</v>
       </c>
-      <c r="X94" s="342"/>
-      <c r="Y94" s="342"/>
-      <c r="Z94" s="343"/>
+      <c r="X94" s="329"/>
+      <c r="Y94" s="329"/>
+      <c r="Z94" s="328"/>
     </row>
     <row r="95" spans="1:27" s="2" customFormat="1" ht="13.5">
-      <c r="A95" s="330"/>
-      <c r="B95" s="330"/>
-      <c r="C95" s="348"/>
-      <c r="D95" s="349"/>
-      <c r="E95" s="348"/>
-      <c r="F95" s="349"/>
-      <c r="G95" s="341" t="s">
+      <c r="A95" s="334"/>
+      <c r="B95" s="334"/>
+      <c r="C95" s="347"/>
+      <c r="D95" s="348"/>
+      <c r="E95" s="347"/>
+      <c r="F95" s="348"/>
+      <c r="G95" s="327" t="s">
         <v>14</v>
       </c>
-      <c r="H95" s="343"/>
-      <c r="I95" s="341" t="s">
+      <c r="H95" s="328"/>
+      <c r="I95" s="327" t="s">
         <v>18</v>
       </c>
-      <c r="J95" s="343"/>
-      <c r="K95" s="341" t="s">
+      <c r="J95" s="328"/>
+      <c r="K95" s="327" t="s">
         <v>21</v>
       </c>
-      <c r="L95" s="343"/>
-      <c r="M95" s="341" t="s">
+      <c r="L95" s="328"/>
+      <c r="M95" s="327" t="s">
         <v>14</v>
       </c>
-      <c r="N95" s="343"/>
-      <c r="O95" s="341" t="s">
+      <c r="N95" s="328"/>
+      <c r="O95" s="327" t="s">
         <v>18</v>
       </c>
-      <c r="P95" s="343"/>
-      <c r="Q95" s="341" t="s">
+      <c r="P95" s="328"/>
+      <c r="Q95" s="327" t="s">
         <v>28</v>
       </c>
-      <c r="R95" s="343"/>
-      <c r="S95" s="344" t="s">
+      <c r="R95" s="328"/>
+      <c r="S95" s="350" t="s">
         <v>93</v>
       </c>
-      <c r="T95" s="344"/>
-      <c r="U95" s="344" t="s">
+      <c r="T95" s="350"/>
+      <c r="U95" s="350" t="s">
         <v>27</v>
       </c>
-      <c r="V95" s="344"/>
-      <c r="W95" s="340" t="s">
+      <c r="V95" s="350"/>
+      <c r="W95" s="351" t="s">
         <v>102</v>
       </c>
-      <c r="X95" s="340"/>
-      <c r="Y95" s="340" t="s">
+      <c r="X95" s="351"/>
+      <c r="Y95" s="351" t="s">
         <v>103</v>
       </c>
-      <c r="Z95" s="340"/>
+      <c r="Z95" s="351"/>
     </row>
     <row r="96" spans="1:27" s="2" customFormat="1" ht="13.5">
-      <c r="A96" s="345"/>
-      <c r="B96" s="345"/>
+      <c r="A96" s="335"/>
+      <c r="B96" s="335"/>
       <c r="C96" s="3" t="s">
         <v>24</v>
       </c>
@@ -22287,10 +22296,10 @@
       </c>
     </row>
     <row r="108" spans="1:28" ht="17.25" customHeight="1">
-      <c r="A108" s="326" t="s">
+      <c r="A108" s="330" t="s">
         <v>17</v>
       </c>
-      <c r="B108" s="327"/>
+      <c r="B108" s="331"/>
       <c r="C108" s="122">
         <f t="shared" ref="C108" si="41">SUM(C97:C107)</f>
         <v>332</v>
@@ -22415,34 +22424,34 @@
       <c r="X109" s="29"/>
     </row>
     <row r="111" spans="1:28" ht="20.25">
-      <c r="A111" s="328" t="s">
+      <c r="A111" s="332" t="s">
         <v>94</v>
       </c>
-      <c r="B111" s="328"/>
-      <c r="C111" s="328"/>
-      <c r="D111" s="328"/>
-      <c r="E111" s="328"/>
-      <c r="F111" s="328"/>
-      <c r="G111" s="328"/>
-      <c r="H111" s="328"/>
-      <c r="I111" s="328"/>
-      <c r="J111" s="328"/>
-      <c r="K111" s="328"/>
-      <c r="L111" s="328"/>
-      <c r="M111" s="328"/>
-      <c r="N111" s="328"/>
-      <c r="O111" s="328"/>
-      <c r="P111" s="328"/>
-      <c r="Q111" s="328"/>
-      <c r="R111" s="328"/>
-      <c r="S111" s="328"/>
-      <c r="T111" s="328"/>
-      <c r="U111" s="328"/>
-      <c r="V111" s="328"/>
-      <c r="W111" s="328"/>
-      <c r="X111" s="328"/>
-      <c r="Y111" s="328"/>
-      <c r="Z111" s="328"/>
+      <c r="B111" s="332"/>
+      <c r="C111" s="332"/>
+      <c r="D111" s="332"/>
+      <c r="E111" s="332"/>
+      <c r="F111" s="332"/>
+      <c r="G111" s="332"/>
+      <c r="H111" s="332"/>
+      <c r="I111" s="332"/>
+      <c r="J111" s="332"/>
+      <c r="K111" s="332"/>
+      <c r="L111" s="332"/>
+      <c r="M111" s="332"/>
+      <c r="N111" s="332"/>
+      <c r="O111" s="332"/>
+      <c r="P111" s="332"/>
+      <c r="Q111" s="332"/>
+      <c r="R111" s="332"/>
+      <c r="S111" s="332"/>
+      <c r="T111" s="332"/>
+      <c r="U111" s="332"/>
+      <c r="V111" s="332"/>
+      <c r="W111" s="332"/>
+      <c r="X111" s="332"/>
+      <c r="Y111" s="332"/>
+      <c r="Z111" s="332"/>
       <c r="AA111" s="14"/>
     </row>
     <row r="112" spans="1:28" s="106" customFormat="1" ht="15.75" customHeight="1">
@@ -22474,100 +22483,100 @@
       </c>
     </row>
     <row r="113" spans="1:28" s="2" customFormat="1" ht="13.5">
-      <c r="A113" s="329" t="s">
-        <v>0</v>
-      </c>
-      <c r="B113" s="329" t="s">
+      <c r="A113" s="333" t="s">
+        <v>0</v>
+      </c>
+      <c r="B113" s="333" t="s">
         <v>25</v>
       </c>
-      <c r="C113" s="346" t="s">
+      <c r="C113" s="345" t="s">
         <v>20</v>
       </c>
-      <c r="D113" s="347"/>
-      <c r="E113" s="346" t="s">
+      <c r="D113" s="346"/>
+      <c r="E113" s="345" t="s">
         <v>19</v>
       </c>
-      <c r="F113" s="347"/>
-      <c r="G113" s="341" t="s">
+      <c r="F113" s="346"/>
+      <c r="G113" s="327" t="s">
         <v>1</v>
       </c>
-      <c r="H113" s="342"/>
-      <c r="I113" s="342"/>
-      <c r="J113" s="342"/>
-      <c r="K113" s="342"/>
-      <c r="L113" s="343"/>
-      <c r="M113" s="344" t="s">
+      <c r="H113" s="329"/>
+      <c r="I113" s="329"/>
+      <c r="J113" s="329"/>
+      <c r="K113" s="329"/>
+      <c r="L113" s="328"/>
+      <c r="M113" s="350" t="s">
         <v>99</v>
       </c>
-      <c r="N113" s="344"/>
-      <c r="O113" s="344"/>
-      <c r="P113" s="344"/>
-      <c r="Q113" s="344"/>
-      <c r="R113" s="344"/>
-      <c r="S113" s="341" t="s">
+      <c r="N113" s="350"/>
+      <c r="O113" s="350"/>
+      <c r="P113" s="350"/>
+      <c r="Q113" s="350"/>
+      <c r="R113" s="350"/>
+      <c r="S113" s="327" t="s">
         <v>100</v>
       </c>
-      <c r="T113" s="342"/>
-      <c r="U113" s="342"/>
-      <c r="V113" s="343"/>
-      <c r="W113" s="341" t="s">
+      <c r="T113" s="329"/>
+      <c r="U113" s="329"/>
+      <c r="V113" s="328"/>
+      <c r="W113" s="327" t="s">
         <v>101</v>
       </c>
-      <c r="X113" s="342"/>
-      <c r="Y113" s="342"/>
-      <c r="Z113" s="343"/>
+      <c r="X113" s="329"/>
+      <c r="Y113" s="329"/>
+      <c r="Z113" s="328"/>
     </row>
     <row r="114" spans="1:28" s="2" customFormat="1" ht="13.5">
-      <c r="A114" s="330"/>
-      <c r="B114" s="330"/>
-      <c r="C114" s="348"/>
-      <c r="D114" s="349"/>
-      <c r="E114" s="348"/>
-      <c r="F114" s="349"/>
-      <c r="G114" s="341" t="s">
+      <c r="A114" s="334"/>
+      <c r="B114" s="334"/>
+      <c r="C114" s="347"/>
+      <c r="D114" s="348"/>
+      <c r="E114" s="347"/>
+      <c r="F114" s="348"/>
+      <c r="G114" s="327" t="s">
         <v>14</v>
       </c>
-      <c r="H114" s="343"/>
-      <c r="I114" s="341" t="s">
+      <c r="H114" s="328"/>
+      <c r="I114" s="327" t="s">
         <v>18</v>
       </c>
-      <c r="J114" s="343"/>
-      <c r="K114" s="341" t="s">
+      <c r="J114" s="328"/>
+      <c r="K114" s="327" t="s">
         <v>21</v>
       </c>
-      <c r="L114" s="343"/>
-      <c r="M114" s="341" t="s">
+      <c r="L114" s="328"/>
+      <c r="M114" s="327" t="s">
         <v>14</v>
       </c>
-      <c r="N114" s="343"/>
-      <c r="O114" s="341" t="s">
+      <c r="N114" s="328"/>
+      <c r="O114" s="327" t="s">
         <v>18</v>
       </c>
-      <c r="P114" s="343"/>
-      <c r="Q114" s="341" t="s">
+      <c r="P114" s="328"/>
+      <c r="Q114" s="327" t="s">
         <v>28</v>
       </c>
-      <c r="R114" s="343"/>
-      <c r="S114" s="344" t="s">
+      <c r="R114" s="328"/>
+      <c r="S114" s="350" t="s">
         <v>93</v>
       </c>
-      <c r="T114" s="344"/>
-      <c r="U114" s="344" t="s">
+      <c r="T114" s="350"/>
+      <c r="U114" s="350" t="s">
         <v>27</v>
       </c>
-      <c r="V114" s="344"/>
-      <c r="W114" s="340" t="s">
+      <c r="V114" s="350"/>
+      <c r="W114" s="351" t="s">
         <v>102</v>
       </c>
-      <c r="X114" s="340"/>
-      <c r="Y114" s="340" t="s">
+      <c r="X114" s="351"/>
+      <c r="Y114" s="351" t="s">
         <v>103</v>
       </c>
-      <c r="Z114" s="340"/>
+      <c r="Z114" s="351"/>
     </row>
     <row r="115" spans="1:28" s="2" customFormat="1" ht="13.5">
-      <c r="A115" s="345"/>
-      <c r="B115" s="345"/>
+      <c r="A115" s="335"/>
+      <c r="B115" s="335"/>
       <c r="C115" s="3" t="s">
         <v>24</v>
       </c>
@@ -23441,10 +23450,10 @@
       </c>
     </row>
     <row r="125" spans="1:28" ht="17.25" customHeight="1">
-      <c r="A125" s="326" t="s">
+      <c r="A125" s="330" t="s">
         <v>17</v>
       </c>
-      <c r="B125" s="327"/>
+      <c r="B125" s="331"/>
       <c r="C125" s="122">
         <f t="shared" ref="C125:Z125" si="68">SUM(C116:C124)</f>
         <v>381</v>
@@ -23543,34 +23552,34 @@
       </c>
     </row>
     <row r="127" spans="1:28" ht="22.5" customHeight="1">
-      <c r="A127" s="328" t="s">
+      <c r="A127" s="332" t="s">
         <v>283</v>
       </c>
-      <c r="B127" s="328"/>
-      <c r="C127" s="328"/>
-      <c r="D127" s="328"/>
-      <c r="E127" s="328"/>
-      <c r="F127" s="328"/>
-      <c r="G127" s="328"/>
-      <c r="H127" s="328"/>
-      <c r="I127" s="328"/>
-      <c r="J127" s="328"/>
-      <c r="K127" s="328"/>
-      <c r="L127" s="328"/>
-      <c r="M127" s="328"/>
-      <c r="N127" s="328"/>
-      <c r="O127" s="328"/>
-      <c r="P127" s="328"/>
-      <c r="Q127" s="328"/>
-      <c r="R127" s="328"/>
-      <c r="S127" s="328"/>
-      <c r="T127" s="328"/>
-      <c r="U127" s="328"/>
-      <c r="V127" s="328"/>
-      <c r="W127" s="328"/>
-      <c r="X127" s="328"/>
-      <c r="Y127" s="328"/>
-      <c r="Z127" s="328"/>
+      <c r="B127" s="332"/>
+      <c r="C127" s="332"/>
+      <c r="D127" s="332"/>
+      <c r="E127" s="332"/>
+      <c r="F127" s="332"/>
+      <c r="G127" s="332"/>
+      <c r="H127" s="332"/>
+      <c r="I127" s="332"/>
+      <c r="J127" s="332"/>
+      <c r="K127" s="332"/>
+      <c r="L127" s="332"/>
+      <c r="M127" s="332"/>
+      <c r="N127" s="332"/>
+      <c r="O127" s="332"/>
+      <c r="P127" s="332"/>
+      <c r="Q127" s="332"/>
+      <c r="R127" s="332"/>
+      <c r="S127" s="332"/>
+      <c r="T127" s="332"/>
+      <c r="U127" s="332"/>
+      <c r="V127" s="332"/>
+      <c r="W127" s="332"/>
+      <c r="X127" s="332"/>
+      <c r="Y127" s="332"/>
+      <c r="Z127" s="332"/>
     </row>
     <row r="128" spans="1:28" s="106" customFormat="1" ht="11.25">
       <c r="A128" s="104"/>
@@ -23601,100 +23610,100 @@
       </c>
     </row>
     <row r="129" spans="1:28" s="2" customFormat="1" ht="13.5">
-      <c r="A129" s="329" t="s">
-        <v>0</v>
-      </c>
-      <c r="B129" s="329" t="s">
+      <c r="A129" s="333" t="s">
+        <v>0</v>
+      </c>
+      <c r="B129" s="333" t="s">
         <v>25</v>
       </c>
-      <c r="C129" s="346" t="s">
+      <c r="C129" s="345" t="s">
         <v>20</v>
       </c>
-      <c r="D129" s="347"/>
-      <c r="E129" s="346" t="s">
+      <c r="D129" s="346"/>
+      <c r="E129" s="345" t="s">
         <v>19</v>
       </c>
-      <c r="F129" s="347"/>
-      <c r="G129" s="341" t="s">
+      <c r="F129" s="346"/>
+      <c r="G129" s="327" t="s">
         <v>1</v>
       </c>
-      <c r="H129" s="342"/>
-      <c r="I129" s="342"/>
-      <c r="J129" s="342"/>
-      <c r="K129" s="342"/>
-      <c r="L129" s="343"/>
-      <c r="M129" s="344" t="s">
+      <c r="H129" s="329"/>
+      <c r="I129" s="329"/>
+      <c r="J129" s="329"/>
+      <c r="K129" s="329"/>
+      <c r="L129" s="328"/>
+      <c r="M129" s="350" t="s">
         <v>99</v>
       </c>
-      <c r="N129" s="344"/>
-      <c r="O129" s="344"/>
-      <c r="P129" s="344"/>
-      <c r="Q129" s="344"/>
-      <c r="R129" s="344"/>
-      <c r="S129" s="341" t="s">
+      <c r="N129" s="350"/>
+      <c r="O129" s="350"/>
+      <c r="P129" s="350"/>
+      <c r="Q129" s="350"/>
+      <c r="R129" s="350"/>
+      <c r="S129" s="327" t="s">
         <v>100</v>
       </c>
-      <c r="T129" s="342"/>
-      <c r="U129" s="342"/>
-      <c r="V129" s="343"/>
-      <c r="W129" s="341" t="s">
+      <c r="T129" s="329"/>
+      <c r="U129" s="329"/>
+      <c r="V129" s="328"/>
+      <c r="W129" s="327" t="s">
         <v>101</v>
       </c>
-      <c r="X129" s="342"/>
-      <c r="Y129" s="342"/>
-      <c r="Z129" s="343"/>
+      <c r="X129" s="329"/>
+      <c r="Y129" s="329"/>
+      <c r="Z129" s="328"/>
     </row>
     <row r="130" spans="1:28" s="2" customFormat="1" ht="13.5">
-      <c r="A130" s="330"/>
-      <c r="B130" s="330"/>
-      <c r="C130" s="348"/>
-      <c r="D130" s="349"/>
-      <c r="E130" s="348"/>
-      <c r="F130" s="349"/>
-      <c r="G130" s="341" t="s">
+      <c r="A130" s="334"/>
+      <c r="B130" s="334"/>
+      <c r="C130" s="347"/>
+      <c r="D130" s="348"/>
+      <c r="E130" s="347"/>
+      <c r="F130" s="348"/>
+      <c r="G130" s="327" t="s">
         <v>14</v>
       </c>
-      <c r="H130" s="343"/>
-      <c r="I130" s="341" t="s">
+      <c r="H130" s="328"/>
+      <c r="I130" s="327" t="s">
         <v>18</v>
       </c>
-      <c r="J130" s="343"/>
-      <c r="K130" s="341" t="s">
+      <c r="J130" s="328"/>
+      <c r="K130" s="327" t="s">
         <v>21</v>
       </c>
-      <c r="L130" s="343"/>
-      <c r="M130" s="341" t="s">
+      <c r="L130" s="328"/>
+      <c r="M130" s="327" t="s">
         <v>14</v>
       </c>
-      <c r="N130" s="343"/>
-      <c r="O130" s="341" t="s">
+      <c r="N130" s="328"/>
+      <c r="O130" s="327" t="s">
         <v>18</v>
       </c>
-      <c r="P130" s="343"/>
-      <c r="Q130" s="341" t="s">
+      <c r="P130" s="328"/>
+      <c r="Q130" s="327" t="s">
         <v>28</v>
       </c>
-      <c r="R130" s="343"/>
-      <c r="S130" s="344" t="s">
+      <c r="R130" s="328"/>
+      <c r="S130" s="350" t="s">
         <v>93</v>
       </c>
-      <c r="T130" s="344"/>
-      <c r="U130" s="344" t="s">
+      <c r="T130" s="350"/>
+      <c r="U130" s="350" t="s">
         <v>27</v>
       </c>
-      <c r="V130" s="344"/>
-      <c r="W130" s="340" t="s">
+      <c r="V130" s="350"/>
+      <c r="W130" s="351" t="s">
         <v>102</v>
       </c>
-      <c r="X130" s="340"/>
-      <c r="Y130" s="340" t="s">
+      <c r="X130" s="351"/>
+      <c r="Y130" s="351" t="s">
         <v>103</v>
       </c>
-      <c r="Z130" s="340"/>
+      <c r="Z130" s="351"/>
     </row>
     <row r="131" spans="1:28" s="2" customFormat="1" ht="13.5">
-      <c r="A131" s="345"/>
-      <c r="B131" s="345"/>
+      <c r="A131" s="335"/>
+      <c r="B131" s="335"/>
       <c r="C131" s="3" t="s">
         <v>24</v>
       </c>
@@ -24595,10 +24604,10 @@
       <c r="AA141" s="14"/>
     </row>
     <row r="142" spans="1:28" ht="17.25" customHeight="1">
-      <c r="A142" s="326" t="s">
+      <c r="A142" s="330" t="s">
         <v>17</v>
       </c>
-      <c r="B142" s="327"/>
+      <c r="B142" s="331"/>
       <c r="C142" s="122">
         <f>SUM(C132:C141)</f>
         <v>364</v>
@@ -24700,6 +24709,144 @@
     <row r="143" spans="1:28" ht="6" hidden="1" customHeight="1"/>
   </sheetData>
   <mergeCells count="162">
+    <mergeCell ref="A1:Z1"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A4:Z4"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:D7"/>
+    <mergeCell ref="E6:F7"/>
+    <mergeCell ref="G6:L6"/>
+    <mergeCell ref="M6:R6"/>
+    <mergeCell ref="S6:V6"/>
+    <mergeCell ref="W6:Z6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="W95:X95"/>
+    <mergeCell ref="Y95:Z95"/>
+    <mergeCell ref="W113:Z113"/>
+    <mergeCell ref="W94:Z94"/>
+    <mergeCell ref="W75:Z75"/>
+    <mergeCell ref="W76:X76"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="O42:P42"/>
+    <mergeCell ref="U42:V42"/>
+    <mergeCell ref="Q42:R42"/>
+    <mergeCell ref="M58:R58"/>
+    <mergeCell ref="W59:X59"/>
+    <mergeCell ref="M41:R41"/>
+    <mergeCell ref="Y76:Z76"/>
+    <mergeCell ref="W58:Z58"/>
+    <mergeCell ref="W129:Z129"/>
+    <mergeCell ref="A127:Z127"/>
+    <mergeCell ref="A94:A96"/>
+    <mergeCell ref="C41:D42"/>
+    <mergeCell ref="E41:F42"/>
+    <mergeCell ref="B113:B115"/>
+    <mergeCell ref="G113:L113"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="G114:H114"/>
+    <mergeCell ref="I114:J114"/>
+    <mergeCell ref="K114:L114"/>
+    <mergeCell ref="M114:N114"/>
+    <mergeCell ref="O114:P114"/>
+    <mergeCell ref="U114:V114"/>
+    <mergeCell ref="Q114:R114"/>
+    <mergeCell ref="A113:A115"/>
+    <mergeCell ref="S75:V75"/>
+    <mergeCell ref="S58:V58"/>
+    <mergeCell ref="E129:F130"/>
+    <mergeCell ref="Q130:R130"/>
+    <mergeCell ref="M129:R129"/>
+    <mergeCell ref="W130:X130"/>
+    <mergeCell ref="S42:T42"/>
+    <mergeCell ref="W42:X42"/>
+    <mergeCell ref="Y42:Z42"/>
+    <mergeCell ref="Y59:Z59"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="Y130:Z130"/>
+    <mergeCell ref="S130:T130"/>
+    <mergeCell ref="S114:T114"/>
+    <mergeCell ref="W114:X114"/>
+    <mergeCell ref="Y114:Z114"/>
+    <mergeCell ref="M95:N95"/>
+    <mergeCell ref="S113:V113"/>
+    <mergeCell ref="S94:V94"/>
+    <mergeCell ref="A129:A131"/>
+    <mergeCell ref="B129:B131"/>
+    <mergeCell ref="G129:L129"/>
+    <mergeCell ref="G130:H130"/>
+    <mergeCell ref="I130:J130"/>
+    <mergeCell ref="K130:L130"/>
+    <mergeCell ref="M130:N130"/>
+    <mergeCell ref="O130:P130"/>
+    <mergeCell ref="U130:V130"/>
+    <mergeCell ref="C129:D130"/>
+    <mergeCell ref="S129:V129"/>
+    <mergeCell ref="G94:L94"/>
+    <mergeCell ref="G95:H95"/>
+    <mergeCell ref="I95:J95"/>
+    <mergeCell ref="K95:L95"/>
+    <mergeCell ref="M94:R94"/>
+    <mergeCell ref="M113:R113"/>
+    <mergeCell ref="S95:T95"/>
+    <mergeCell ref="S59:T59"/>
+    <mergeCell ref="S41:V41"/>
+    <mergeCell ref="W41:Z41"/>
+    <mergeCell ref="U95:V95"/>
+    <mergeCell ref="U76:V76"/>
+    <mergeCell ref="A39:Z39"/>
+    <mergeCell ref="O59:P59"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="A75:A77"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="G75:L75"/>
+    <mergeCell ref="M75:R75"/>
+    <mergeCell ref="G76:H76"/>
+    <mergeCell ref="I76:J76"/>
+    <mergeCell ref="K76:L76"/>
+    <mergeCell ref="M76:N76"/>
+    <mergeCell ref="O76:P76"/>
+    <mergeCell ref="S76:T76"/>
+    <mergeCell ref="A56:Z56"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="A142:B142"/>
+    <mergeCell ref="A58:A60"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="G58:L58"/>
+    <mergeCell ref="Q59:R59"/>
+    <mergeCell ref="C113:D114"/>
+    <mergeCell ref="E113:F114"/>
+    <mergeCell ref="C94:D95"/>
+    <mergeCell ref="E94:F95"/>
+    <mergeCell ref="C75:D76"/>
+    <mergeCell ref="E75:F76"/>
+    <mergeCell ref="C58:D59"/>
+    <mergeCell ref="E58:F59"/>
+    <mergeCell ref="B94:B96"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="O95:P95"/>
+    <mergeCell ref="Q95:R95"/>
+    <mergeCell ref="Q76:R76"/>
+    <mergeCell ref="A111:Z111"/>
+    <mergeCell ref="A92:Z92"/>
+    <mergeCell ref="A73:Z73"/>
+    <mergeCell ref="U59:V59"/>
+    <mergeCell ref="M59:N59"/>
+    <mergeCell ref="G59:H59"/>
     <mergeCell ref="I42:J42"/>
     <mergeCell ref="K42:L42"/>
     <mergeCell ref="G41:L41"/>
@@ -24724,144 +24871,6 @@
     <mergeCell ref="U25:V25"/>
     <mergeCell ref="W25:X25"/>
     <mergeCell ref="Y25:Z25"/>
-    <mergeCell ref="A142:B142"/>
-    <mergeCell ref="A58:A60"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="G58:L58"/>
-    <mergeCell ref="Q59:R59"/>
-    <mergeCell ref="C113:D114"/>
-    <mergeCell ref="E113:F114"/>
-    <mergeCell ref="C94:D95"/>
-    <mergeCell ref="E94:F95"/>
-    <mergeCell ref="C75:D76"/>
-    <mergeCell ref="E75:F76"/>
-    <mergeCell ref="C58:D59"/>
-    <mergeCell ref="E58:F59"/>
-    <mergeCell ref="B94:B96"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="O95:P95"/>
-    <mergeCell ref="Q95:R95"/>
-    <mergeCell ref="Q76:R76"/>
-    <mergeCell ref="A111:Z111"/>
-    <mergeCell ref="A92:Z92"/>
-    <mergeCell ref="A73:Z73"/>
-    <mergeCell ref="U59:V59"/>
-    <mergeCell ref="M59:N59"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="S41:V41"/>
-    <mergeCell ref="W41:Z41"/>
-    <mergeCell ref="U95:V95"/>
-    <mergeCell ref="U76:V76"/>
-    <mergeCell ref="A39:Z39"/>
-    <mergeCell ref="O59:P59"/>
-    <mergeCell ref="A108:B108"/>
-    <mergeCell ref="A75:A77"/>
-    <mergeCell ref="B75:B77"/>
-    <mergeCell ref="G75:L75"/>
-    <mergeCell ref="M75:R75"/>
-    <mergeCell ref="G76:H76"/>
-    <mergeCell ref="I76:J76"/>
-    <mergeCell ref="K76:L76"/>
-    <mergeCell ref="M76:N76"/>
-    <mergeCell ref="O76:P76"/>
-    <mergeCell ref="S76:T76"/>
-    <mergeCell ref="A56:Z56"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="S129:V129"/>
-    <mergeCell ref="G94:L94"/>
-    <mergeCell ref="G95:H95"/>
-    <mergeCell ref="I95:J95"/>
-    <mergeCell ref="K95:L95"/>
-    <mergeCell ref="M94:R94"/>
-    <mergeCell ref="M113:R113"/>
-    <mergeCell ref="S95:T95"/>
-    <mergeCell ref="S59:T59"/>
-    <mergeCell ref="W130:X130"/>
-    <mergeCell ref="S42:T42"/>
-    <mergeCell ref="W42:X42"/>
-    <mergeCell ref="Y42:Z42"/>
-    <mergeCell ref="Y59:Z59"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="Y130:Z130"/>
-    <mergeCell ref="S130:T130"/>
-    <mergeCell ref="S114:T114"/>
-    <mergeCell ref="W114:X114"/>
-    <mergeCell ref="Y114:Z114"/>
-    <mergeCell ref="M95:N95"/>
-    <mergeCell ref="S113:V113"/>
-    <mergeCell ref="S94:V94"/>
-    <mergeCell ref="A129:A131"/>
-    <mergeCell ref="B129:B131"/>
-    <mergeCell ref="G129:L129"/>
-    <mergeCell ref="G130:H130"/>
-    <mergeCell ref="I130:J130"/>
-    <mergeCell ref="K130:L130"/>
-    <mergeCell ref="M130:N130"/>
-    <mergeCell ref="O130:P130"/>
-    <mergeCell ref="U130:V130"/>
-    <mergeCell ref="C129:D130"/>
-    <mergeCell ref="M41:R41"/>
-    <mergeCell ref="Y76:Z76"/>
-    <mergeCell ref="W58:Z58"/>
-    <mergeCell ref="W129:Z129"/>
-    <mergeCell ref="A127:Z127"/>
-    <mergeCell ref="A94:A96"/>
-    <mergeCell ref="C41:D42"/>
-    <mergeCell ref="E41:F42"/>
-    <mergeCell ref="B113:B115"/>
-    <mergeCell ref="G113:L113"/>
-    <mergeCell ref="A125:B125"/>
-    <mergeCell ref="G114:H114"/>
-    <mergeCell ref="I114:J114"/>
-    <mergeCell ref="K114:L114"/>
-    <mergeCell ref="M114:N114"/>
-    <mergeCell ref="O114:P114"/>
-    <mergeCell ref="U114:V114"/>
-    <mergeCell ref="Q114:R114"/>
-    <mergeCell ref="A113:A115"/>
-    <mergeCell ref="S75:V75"/>
-    <mergeCell ref="S58:V58"/>
-    <mergeCell ref="E129:F130"/>
-    <mergeCell ref="Q130:R130"/>
-    <mergeCell ref="M129:R129"/>
-    <mergeCell ref="W95:X95"/>
-    <mergeCell ref="Y95:Z95"/>
-    <mergeCell ref="W113:Z113"/>
-    <mergeCell ref="W94:Z94"/>
-    <mergeCell ref="W75:Z75"/>
-    <mergeCell ref="W76:X76"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="O42:P42"/>
-    <mergeCell ref="U42:V42"/>
-    <mergeCell ref="Q42:R42"/>
-    <mergeCell ref="M58:R58"/>
-    <mergeCell ref="W59:X59"/>
-    <mergeCell ref="A1:Z1"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A4:Z4"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:D7"/>
-    <mergeCell ref="E6:F7"/>
-    <mergeCell ref="G6:L6"/>
-    <mergeCell ref="M6:R6"/>
-    <mergeCell ref="S6:V6"/>
-    <mergeCell ref="W6:Z6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="W7:X7"/>
-    <mergeCell ref="Y7:Z7"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.27559055118110237" right="0.19685039370078741" top="0.55118110236220474" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.19685039370078741"/>
@@ -24919,35 +24928,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" s="1" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A1" s="287" t="s">
+      <c r="A1" s="285" t="s">
         <v>294</v>
       </c>
-      <c r="B1" s="287"/>
-      <c r="C1" s="287"/>
-      <c r="D1" s="287"/>
-      <c r="E1" s="287"/>
-      <c r="F1" s="287"/>
-      <c r="G1" s="287"/>
-      <c r="H1" s="287"/>
-      <c r="I1" s="287"/>
-      <c r="J1" s="287"/>
-      <c r="K1" s="287"/>
-      <c r="L1" s="287"/>
-      <c r="M1" s="287"/>
-      <c r="N1" s="287"/>
-      <c r="O1" s="287"/>
-      <c r="P1" s="287"/>
-      <c r="Q1" s="287"/>
-      <c r="R1" s="287"/>
-      <c r="S1" s="287"/>
-      <c r="T1" s="287"/>
-      <c r="U1" s="287"/>
-      <c r="V1" s="287"/>
-      <c r="W1" s="287"/>
-      <c r="X1" s="287"/>
-      <c r="Y1" s="287"/>
-      <c r="Z1" s="287"/>
-      <c r="AA1" s="287"/>
+      <c r="B1" s="285"/>
+      <c r="C1" s="285"/>
+      <c r="D1" s="285"/>
+      <c r="E1" s="285"/>
+      <c r="F1" s="285"/>
+      <c r="G1" s="285"/>
+      <c r="H1" s="285"/>
+      <c r="I1" s="285"/>
+      <c r="J1" s="285"/>
+      <c r="K1" s="285"/>
+      <c r="L1" s="285"/>
+      <c r="M1" s="285"/>
+      <c r="N1" s="285"/>
+      <c r="O1" s="285"/>
+      <c r="P1" s="285"/>
+      <c r="Q1" s="285"/>
+      <c r="R1" s="285"/>
+      <c r="S1" s="285"/>
+      <c r="T1" s="285"/>
+      <c r="U1" s="285"/>
+      <c r="V1" s="285"/>
+      <c r="W1" s="285"/>
+      <c r="X1" s="285"/>
+      <c r="Y1" s="285"/>
+      <c r="Z1" s="285"/>
+      <c r="AA1" s="285"/>
     </row>
     <row r="2" spans="1:27" s="250" customFormat="1" ht="15" customHeight="1">
       <c r="A2" s="261"/>
@@ -24979,35 +24988,35 @@
       <c r="AA2" s="261"/>
     </row>
     <row r="3" spans="1:27" s="252" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A3" s="358" t="s">
+      <c r="A3" s="352" t="s">
         <v>353</v>
       </c>
-      <c r="B3" s="358"/>
-      <c r="C3" s="358"/>
-      <c r="D3" s="358"/>
-      <c r="E3" s="358"/>
-      <c r="F3" s="358"/>
-      <c r="G3" s="358"/>
-      <c r="H3" s="358"/>
-      <c r="I3" s="358"/>
-      <c r="J3" s="358"/>
-      <c r="K3" s="358"/>
-      <c r="L3" s="358"/>
-      <c r="M3" s="358"/>
-      <c r="N3" s="358"/>
-      <c r="O3" s="358"/>
-      <c r="P3" s="358"/>
-      <c r="Q3" s="358"/>
-      <c r="R3" s="358"/>
-      <c r="S3" s="358"/>
-      <c r="T3" s="358"/>
-      <c r="U3" s="358"/>
-      <c r="V3" s="358"/>
-      <c r="W3" s="358"/>
-      <c r="X3" s="358"/>
-      <c r="Y3" s="358"/>
-      <c r="Z3" s="358"/>
-      <c r="AA3" s="358"/>
+      <c r="B3" s="352"/>
+      <c r="C3" s="352"/>
+      <c r="D3" s="352"/>
+      <c r="E3" s="352"/>
+      <c r="F3" s="352"/>
+      <c r="G3" s="352"/>
+      <c r="H3" s="352"/>
+      <c r="I3" s="352"/>
+      <c r="J3" s="352"/>
+      <c r="K3" s="352"/>
+      <c r="L3" s="352"/>
+      <c r="M3" s="352"/>
+      <c r="N3" s="352"/>
+      <c r="O3" s="352"/>
+      <c r="P3" s="352"/>
+      <c r="Q3" s="352"/>
+      <c r="R3" s="352"/>
+      <c r="S3" s="352"/>
+      <c r="T3" s="352"/>
+      <c r="U3" s="352"/>
+      <c r="V3" s="352"/>
+      <c r="W3" s="352"/>
+      <c r="X3" s="352"/>
+      <c r="Y3" s="352"/>
+      <c r="Z3" s="352"/>
+      <c r="AA3" s="352"/>
     </row>
     <row r="4" spans="1:27" s="252" customFormat="1">
       <c r="A4" s="248"/>
@@ -25041,100 +25050,100 @@
       </c>
     </row>
     <row r="5" spans="1:27" s="252" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A5" s="355" t="s">
+      <c r="A5" s="357" t="s">
         <v>329</v>
       </c>
-      <c r="B5" s="355" t="s">
+      <c r="B5" s="357" t="s">
         <v>354</v>
       </c>
-      <c r="C5" s="331" t="s">
+      <c r="C5" s="336" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="332"/>
-      <c r="E5" s="331" t="s">
+      <c r="D5" s="337"/>
+      <c r="E5" s="336" t="s">
         <v>355</v>
       </c>
-      <c r="F5" s="332"/>
-      <c r="G5" s="335" t="s">
+      <c r="F5" s="337"/>
+      <c r="G5" s="340" t="s">
         <v>1</v>
       </c>
-      <c r="H5" s="336"/>
-      <c r="I5" s="336"/>
-      <c r="J5" s="336"/>
-      <c r="K5" s="336"/>
-      <c r="L5" s="336"/>
-      <c r="M5" s="336"/>
-      <c r="N5" s="337"/>
+      <c r="H5" s="341"/>
+      <c r="I5" s="341"/>
+      <c r="J5" s="341"/>
+      <c r="K5" s="341"/>
+      <c r="L5" s="341"/>
+      <c r="M5" s="341"/>
+      <c r="N5" s="342"/>
       <c r="O5" s="235" t="s">
         <v>356</v>
       </c>
-      <c r="P5" s="335" t="s">
+      <c r="P5" s="340" t="s">
         <v>359</v>
       </c>
-      <c r="Q5" s="336"/>
-      <c r="R5" s="336"/>
-      <c r="S5" s="336"/>
-      <c r="T5" s="336"/>
-      <c r="U5" s="337"/>
-      <c r="V5" s="335" t="s">
+      <c r="Q5" s="341"/>
+      <c r="R5" s="341"/>
+      <c r="S5" s="341"/>
+      <c r="T5" s="341"/>
+      <c r="U5" s="342"/>
+      <c r="V5" s="340" t="s">
         <v>360</v>
       </c>
-      <c r="W5" s="336"/>
-      <c r="X5" s="336"/>
-      <c r="Y5" s="336"/>
-      <c r="Z5" s="336"/>
-      <c r="AA5" s="337"/>
+      <c r="W5" s="341"/>
+      <c r="X5" s="341"/>
+      <c r="Y5" s="341"/>
+      <c r="Z5" s="341"/>
+      <c r="AA5" s="342"/>
     </row>
     <row r="6" spans="1:27" s="247" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A6" s="356"/>
-      <c r="B6" s="356"/>
-      <c r="C6" s="333"/>
-      <c r="D6" s="334"/>
-      <c r="E6" s="333"/>
-      <c r="F6" s="334"/>
-      <c r="G6" s="335" t="s">
+      <c r="A6" s="358"/>
+      <c r="B6" s="358"/>
+      <c r="C6" s="338"/>
+      <c r="D6" s="339"/>
+      <c r="E6" s="338"/>
+      <c r="F6" s="339"/>
+      <c r="G6" s="340" t="s">
         <v>361</v>
       </c>
-      <c r="H6" s="336"/>
-      <c r="I6" s="337"/>
-      <c r="J6" s="335" t="s">
+      <c r="H6" s="341"/>
+      <c r="I6" s="342"/>
+      <c r="J6" s="340" t="s">
         <v>362</v>
       </c>
-      <c r="K6" s="336"/>
-      <c r="L6" s="337"/>
-      <c r="M6" s="335" t="s">
+      <c r="K6" s="341"/>
+      <c r="L6" s="342"/>
+      <c r="M6" s="340" t="s">
         <v>363</v>
       </c>
-      <c r="N6" s="337"/>
+      <c r="N6" s="342"/>
       <c r="O6" s="234" t="s">
         <v>364</v>
       </c>
-      <c r="P6" s="353" t="s">
+      <c r="P6" s="355" t="s">
         <v>365</v>
       </c>
-      <c r="Q6" s="354"/>
-      <c r="R6" s="353" t="s">
+      <c r="Q6" s="356"/>
+      <c r="R6" s="355" t="s">
         <v>366</v>
       </c>
-      <c r="S6" s="354"/>
-      <c r="T6" s="335" t="s">
+      <c r="S6" s="356"/>
+      <c r="T6" s="340" t="s">
         <v>367</v>
       </c>
-      <c r="U6" s="337"/>
-      <c r="V6" s="335" t="s">
+      <c r="U6" s="342"/>
+      <c r="V6" s="340" t="s">
         <v>368</v>
       </c>
-      <c r="W6" s="336"/>
-      <c r="X6" s="337"/>
-      <c r="Y6" s="335" t="s">
+      <c r="W6" s="341"/>
+      <c r="X6" s="342"/>
+      <c r="Y6" s="340" t="s">
         <v>27</v>
       </c>
-      <c r="Z6" s="336"/>
-      <c r="AA6" s="337"/>
+      <c r="Z6" s="341"/>
+      <c r="AA6" s="342"/>
     </row>
     <row r="7" spans="1:27" s="247" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A7" s="357"/>
-      <c r="B7" s="357"/>
+      <c r="A7" s="359"/>
+      <c r="B7" s="359"/>
       <c r="C7" s="178" t="s">
         <v>369</v>
       </c>
@@ -26208,10 +26217,10 @@
       </c>
     </row>
     <row r="20" spans="1:27" ht="27.75" customHeight="1">
-      <c r="A20" s="351" t="s">
+      <c r="A20" s="353" t="s">
         <v>379</v>
       </c>
-      <c r="B20" s="352"/>
+      <c r="B20" s="354"/>
       <c r="C20" s="190">
         <v>425</v>
       </c>
@@ -26290,13 +26299,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="V5:AA5"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="A1:AA1"/>
-    <mergeCell ref="V6:X6"/>
-    <mergeCell ref="Y6:AA6"/>
-    <mergeCell ref="A3:AA3"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="M6:N6"/>
     <mergeCell ref="P6:Q6"/>
@@ -26308,6 +26310,13 @@
     <mergeCell ref="E5:F6"/>
     <mergeCell ref="G5:N5"/>
     <mergeCell ref="P5:U5"/>
+    <mergeCell ref="V5:AA5"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="A1:AA1"/>
+    <mergeCell ref="V6:X6"/>
+    <mergeCell ref="Y6:AA6"/>
+    <mergeCell ref="A3:AA3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
